--- a/日报.xlsx
+++ b/日报.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\aa0011\ribao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{478EEBBD-0B95-49F9-88E6-AF87D16A0ECE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0E7C50F-F51B-4065-AEF1-D9EEC39623C8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="720" yWindow="720" windowWidth="9840" windowHeight="4896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -246,7 +246,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39991454817346722"/>
+        <fgColor theme="9" tint="0.39985351115451523"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -258,7 +258,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79992065187536243"/>
+        <fgColor theme="9" tint="0.79985961485641044"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -844,8 +844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:J45"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L41" sqref="L41"/>
+    <sheetView topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -863,7 +863,7 @@
     <row r="2" spans="2:10" s="1" customFormat="1" ht="40.049999999999997" customHeight="1">
       <c r="B2" s="18" t="str">
         <f>"2019年"&amp;D44&amp;"月"&amp;C45&amp;"日，日发电量"&amp;TEXT(I2,"0")&amp;"万千瓦时，其中风电"&amp;TEXT(H2,"0")&amp;"万kWh，光伏"&amp;TEXT(H3,"0")&amp;"万kWh"</f>
-        <v>2019年4月11日，日发电量1040万千瓦时，其中风电869万kWh，光伏171万kWh</v>
+        <v>2019年4月21日，日发电量1266万千瓦时，其中风电1052万kWh，光伏214万kWh</v>
       </c>
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
@@ -871,11 +871,11 @@
       <c r="F2" s="20"/>
       <c r="H2" s="1">
         <f>SUM(D4:D22)</f>
-        <v>869.18947852343115</v>
+        <v>1051.9031661072681</v>
       </c>
       <c r="I2" s="1">
         <f>SUM(H2:H3)</f>
-        <v>1039.7240143879762</v>
+        <v>1265.9339634600296</v>
       </c>
     </row>
     <row r="3" spans="2:10" ht="17.399999999999999">
@@ -894,7 +894,7 @@
       <c r="F3" s="22"/>
       <c r="H3" s="1">
         <f>SUM(D23:D31)</f>
-        <v>170.53453586454501</v>
+        <v>214.0307973527614</v>
       </c>
       <c r="I3" s="1"/>
     </row>
@@ -907,22 +907,22 @@
       </c>
       <c r="D4" s="9">
         <f t="shared" ref="D4:D31" si="0">I4</f>
-        <v>1.8420000000000001</v>
+        <v>30.619</v>
       </c>
       <c r="E4" s="10">
         <f t="shared" ref="E4:E31" si="1">J4</f>
-        <v>2.87</v>
+        <v>5.43</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>5</v>
       </c>
       <c r="I4" s="2">
         <f>Sheet2!A1</f>
-        <v>1.8420000000000001</v>
+        <v>30.619</v>
       </c>
       <c r="J4" s="2">
         <f>Sheet2!B1</f>
-        <v>2.87</v>
+        <v>5.43</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="17.399999999999999">
@@ -934,22 +934,22 @@
       </c>
       <c r="D5" s="9">
         <f t="shared" si="0"/>
-        <v>2.1859999999999999</v>
+        <v>24.198</v>
       </c>
       <c r="E5" s="10">
         <f t="shared" si="1"/>
-        <v>2.25</v>
+        <v>5.47</v>
       </c>
       <c r="F5" s="11" t="s">
         <v>5</v>
       </c>
       <c r="I5" s="2">
         <f>Sheet2!A2</f>
-        <v>2.1859999999999999</v>
+        <v>24.198</v>
       </c>
       <c r="J5" s="2">
         <f>Sheet2!B2</f>
-        <v>2.25</v>
+        <v>5.47</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="17.399999999999999">
@@ -961,22 +961,22 @@
       </c>
       <c r="D6" s="9">
         <f t="shared" si="0"/>
-        <v>7.9080000000000004</v>
+        <v>50.600999999999999</v>
       </c>
       <c r="E6" s="10">
         <f t="shared" si="1"/>
-        <v>2.6</v>
+        <v>4.8</v>
       </c>
       <c r="F6" s="11" t="s">
         <v>5</v>
       </c>
       <c r="I6" s="2">
         <f>Sheet2!A3</f>
-        <v>7.9080000000000004</v>
+        <v>50.600999999999999</v>
       </c>
       <c r="J6" s="2">
         <f>Sheet2!B3</f>
-        <v>2.6</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="17.399999999999999">
@@ -988,22 +988,22 @@
       </c>
       <c r="D7" s="9">
         <f t="shared" si="0"/>
-        <v>10.085000000000001</v>
+        <v>8.43</v>
       </c>
       <c r="E7" s="10">
         <f t="shared" si="1"/>
-        <v>3.58</v>
+        <v>4.18</v>
       </c>
       <c r="F7" s="11" t="s">
         <v>5</v>
       </c>
       <c r="I7" s="2">
         <f>Sheet2!A4</f>
-        <v>10.085000000000001</v>
+        <v>8.43</v>
       </c>
       <c r="J7" s="2">
         <f>Sheet2!B4</f>
-        <v>3.58</v>
+        <v>4.18</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="17.399999999999999">
@@ -1015,22 +1015,22 @@
       </c>
       <c r="D8" s="9">
         <f t="shared" si="0"/>
-        <v>19.501000000000001</v>
+        <v>19.28</v>
       </c>
       <c r="E8" s="10">
         <f t="shared" si="1"/>
-        <v>4.46</v>
+        <v>4.72</v>
       </c>
       <c r="F8" s="11" t="s">
         <v>5</v>
       </c>
       <c r="I8" s="2">
         <f>Sheet2!A5</f>
-        <v>19.501000000000001</v>
+        <v>19.28</v>
       </c>
       <c r="J8" s="2">
         <f>Sheet2!B5</f>
-        <v>4.46</v>
+        <v>4.72</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="17.399999999999999">
@@ -1042,22 +1042,22 @@
       </c>
       <c r="D9" s="9">
         <f t="shared" si="0"/>
-        <v>94.8188481675285</v>
+        <v>30.408376963354598</v>
       </c>
       <c r="E9" s="10">
         <f t="shared" si="1"/>
-        <v>4.3</v>
+        <v>2.8383333333333298</v>
       </c>
       <c r="F9" s="11" t="s">
         <v>5</v>
       </c>
       <c r="I9" s="2">
         <f>Sheet2!A6</f>
-        <v>94.8188481675285</v>
+        <v>30.408376963354598</v>
       </c>
       <c r="J9" s="2">
         <f>Sheet2!B6</f>
-        <v>4.3</v>
+        <v>2.8383333333333298</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="17.399999999999999">
@@ -1069,22 +1069,22 @@
       </c>
       <c r="D10" s="9">
         <f t="shared" si="0"/>
-        <v>53.3920150896057</v>
+        <v>9.6835045063997107</v>
       </c>
       <c r="E10" s="10">
         <f t="shared" si="1"/>
-        <v>5.43</v>
+        <v>3.2816666666666698</v>
       </c>
       <c r="F10" s="11" t="s">
         <v>5</v>
       </c>
       <c r="I10" s="2">
         <f>Sheet2!A7</f>
-        <v>53.3920150896057</v>
+        <v>9.6835045063997107</v>
       </c>
       <c r="J10" s="2">
         <f>Sheet2!B7</f>
-        <v>5.43</v>
+        <v>3.2816666666666698</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="17.399999999999999">
@@ -1096,22 +1096,22 @@
       </c>
       <c r="D11" s="9">
         <f t="shared" si="0"/>
-        <v>18.991315266296901</v>
+        <v>30.207134637513899</v>
       </c>
       <c r="E11" s="10">
         <f t="shared" si="1"/>
-        <v>3.9975000000000001</v>
+        <v>4.9041666666666703</v>
       </c>
       <c r="F11" s="11" t="s">
         <v>5</v>
       </c>
       <c r="I11" s="2">
         <f>Sheet2!A8</f>
-        <v>18.991315266296901</v>
+        <v>30.207134637513899</v>
       </c>
       <c r="J11" s="2">
         <f>Sheet2!B8</f>
-        <v>3.9975000000000001</v>
+        <v>4.9041666666666703</v>
       </c>
     </row>
     <row r="12" spans="2:10" ht="17.399999999999999">
@@ -1123,22 +1123,22 @@
       </c>
       <c r="D12" s="9">
         <f t="shared" si="0"/>
-        <v>44.155200000000001</v>
+        <v>4.6113999999999997</v>
       </c>
       <c r="E12" s="10">
         <f t="shared" si="1"/>
-        <v>5.35</v>
+        <v>2.19</v>
       </c>
       <c r="F12" s="11" t="s">
         <v>5</v>
       </c>
       <c r="I12" s="2">
         <f>Sheet2!A9</f>
-        <v>44.155200000000001</v>
+        <v>4.6113999999999997</v>
       </c>
       <c r="J12" s="2">
         <f>Sheet2!B9</f>
-        <v>5.35</v>
+        <v>2.19</v>
       </c>
     </row>
     <row r="13" spans="2:10" ht="17.399999999999999">
@@ -1150,22 +1150,22 @@
       </c>
       <c r="D13" s="9">
         <f t="shared" si="0"/>
-        <v>48.156799999999997</v>
+        <v>4.4808500000000002</v>
       </c>
       <c r="E13" s="10">
         <f t="shared" si="1"/>
-        <v>6.12</v>
+        <v>1.96</v>
       </c>
       <c r="F13" s="11" t="s">
         <v>5</v>
       </c>
       <c r="I13" s="2">
         <f>Sheet2!A10</f>
-        <v>48.156799999999997</v>
+        <v>4.4808500000000002</v>
       </c>
       <c r="J13" s="2">
         <f>Sheet2!B10</f>
-        <v>6.12</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="14" spans="2:10" ht="17.399999999999999">
@@ -1177,22 +1177,22 @@
       </c>
       <c r="D14" s="9">
         <f t="shared" si="0"/>
-        <v>213.29079999999999</v>
+        <v>37.106999999999999</v>
       </c>
       <c r="E14" s="10">
         <f t="shared" si="1"/>
-        <v>5.7</v>
+        <v>2.57</v>
       </c>
       <c r="F14" s="11" t="s">
         <v>5</v>
       </c>
       <c r="I14" s="2">
         <f>Sheet2!A11</f>
-        <v>213.29079999999999</v>
+        <v>37.106999999999999</v>
       </c>
       <c r="J14" s="2">
         <f>Sheet2!B11</f>
-        <v>5.7</v>
+        <v>2.57</v>
       </c>
     </row>
     <row r="15" spans="2:10" ht="17.399999999999999">
@@ -1204,22 +1204,22 @@
       </c>
       <c r="D15" s="9">
         <f t="shared" si="0"/>
-        <v>70.770200000000003</v>
+        <v>59.815399999999997</v>
       </c>
       <c r="E15" s="10">
         <f t="shared" si="1"/>
-        <v>8.39</v>
+        <v>7.5250000000000004</v>
       </c>
       <c r="F15" s="11" t="s">
         <v>5</v>
       </c>
       <c r="I15" s="2">
         <f>Sheet2!A12</f>
-        <v>70.770200000000003</v>
+        <v>59.815399999999997</v>
       </c>
       <c r="J15" s="2">
         <f>Sheet2!B12</f>
-        <v>8.39</v>
+        <v>7.5250000000000004</v>
       </c>
     </row>
     <row r="16" spans="2:10" ht="17.399999999999999">
@@ -1231,22 +1231,22 @@
       </c>
       <c r="D16" s="9">
         <f t="shared" si="0"/>
-        <v>33.115299999999998</v>
+        <v>48.861400000000003</v>
       </c>
       <c r="E16" s="10">
         <f t="shared" si="1"/>
-        <v>8.77</v>
+        <v>13.94</v>
       </c>
       <c r="F16" s="11" t="s">
         <v>5</v>
       </c>
       <c r="I16" s="2">
         <f>Sheet2!A13</f>
-        <v>33.115299999999998</v>
+        <v>48.861400000000003</v>
       </c>
       <c r="J16" s="2">
         <f>Sheet2!B13</f>
-        <v>8.77</v>
+        <v>13.94</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="17.399999999999999">
@@ -1258,22 +1258,22 @@
       </c>
       <c r="D17" s="9">
         <f t="shared" si="0"/>
-        <v>117.7222</v>
+        <v>143.209</v>
       </c>
       <c r="E17" s="10">
         <f t="shared" si="1"/>
-        <v>10.18</v>
+        <v>15.5</v>
       </c>
       <c r="F17" s="11" t="s">
         <v>5</v>
       </c>
       <c r="I17" s="2">
         <f>Sheet2!A14</f>
-        <v>117.7222</v>
+        <v>143.209</v>
       </c>
       <c r="J17" s="2">
         <f>Sheet2!B14</f>
-        <v>10.18</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="18" spans="2:10" ht="17.399999999999999">
@@ -1285,22 +1285,22 @@
       </c>
       <c r="D18" s="9">
         <f t="shared" si="0"/>
-        <v>39.909999999999997</v>
+        <v>85.12</v>
       </c>
       <c r="E18" s="10">
         <f t="shared" si="1"/>
-        <v>5.29</v>
+        <v>7.71</v>
       </c>
       <c r="F18" s="11" t="s">
         <v>5</v>
       </c>
       <c r="I18" s="2">
         <f>Sheet2!A15</f>
-        <v>39.909999999999997</v>
+        <v>85.12</v>
       </c>
       <c r="J18" s="2">
         <f>Sheet2!B15</f>
-        <v>5.29</v>
+        <v>7.71</v>
       </c>
     </row>
     <row r="19" spans="2:10" ht="17.399999999999999">
@@ -1312,22 +1312,22 @@
       </c>
       <c r="D19" s="9">
         <f t="shared" si="0"/>
-        <v>62.75</v>
+        <v>108.48</v>
       </c>
       <c r="E19" s="10">
         <f t="shared" si="1"/>
-        <v>5.46</v>
+        <v>7.61</v>
       </c>
       <c r="F19" s="11" t="s">
         <v>5</v>
       </c>
       <c r="I19" s="2">
         <f>Sheet2!A16</f>
-        <v>62.75</v>
+        <v>108.48</v>
       </c>
       <c r="J19" s="2">
         <f>Sheet2!B16</f>
-        <v>5.46</v>
+        <v>7.61</v>
       </c>
     </row>
     <row r="20" spans="2:10" ht="17.399999999999999">
@@ -1339,22 +1339,22 @@
       </c>
       <c r="D20" s="9">
         <f t="shared" si="0"/>
-        <v>12.167999999999999</v>
+        <v>23.853999999999999</v>
       </c>
       <c r="E20" s="10">
         <f t="shared" si="1"/>
-        <v>3.57</v>
+        <v>4.84</v>
       </c>
       <c r="F20" s="11" t="s">
         <v>5</v>
       </c>
       <c r="I20" s="2">
         <f>Sheet2!A17</f>
-        <v>12.167999999999999</v>
+        <v>23.853999999999999</v>
       </c>
       <c r="J20" s="2">
         <f>Sheet2!B17</f>
-        <v>3.57</v>
+        <v>4.84</v>
       </c>
     </row>
     <row r="21" spans="2:10" ht="17.399999999999999">
@@ -1366,22 +1366,22 @@
       </c>
       <c r="D21" s="9">
         <f t="shared" si="0"/>
-        <v>12.4</v>
+        <v>40</v>
       </c>
       <c r="E21" s="10">
         <f t="shared" si="1"/>
-        <v>4.37</v>
+        <v>6.56</v>
       </c>
       <c r="F21" s="11" t="s">
         <v>5</v>
       </c>
       <c r="I21" s="2">
         <f>Sheet2!A18</f>
-        <v>12.4</v>
+        <v>40</v>
       </c>
       <c r="J21" s="2">
         <f>Sheet2!B18</f>
-        <v>4.37</v>
+        <v>6.56</v>
       </c>
     </row>
     <row r="22" spans="2:10" ht="17.399999999999999">
@@ -1393,22 +1393,22 @@
       </c>
       <c r="D22" s="9">
         <f t="shared" si="0"/>
-        <v>6.0267999999999997</v>
+        <v>292.93709999999999</v>
       </c>
       <c r="E22" s="10">
         <f t="shared" si="1"/>
-        <v>2.6</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="F22" s="11" t="s">
         <v>5</v>
       </c>
       <c r="I22" s="2">
         <f>Sheet2!A19</f>
-        <v>6.0267999999999997</v>
+        <v>292.93709999999999</v>
       </c>
       <c r="J22" s="2">
         <f>Sheet2!B19</f>
-        <v>2.6</v>
+        <v>8.6999999999999993</v>
       </c>
     </row>
     <row r="23" spans="2:10" ht="17.399999999999999">
@@ -1420,22 +1420,22 @@
       </c>
       <c r="D23" s="14">
         <f t="shared" si="0"/>
-        <v>14.624935864545</v>
+        <v>28.287297352761399</v>
       </c>
       <c r="E23" s="15">
         <f t="shared" si="1"/>
-        <v>12.58</v>
+        <v>13.17</v>
       </c>
       <c r="F23" s="16" t="s">
         <v>25</v>
       </c>
       <c r="I23" s="2">
         <f>Sheet2!A20</f>
-        <v>14.624935864545</v>
+        <v>28.287297352761399</v>
       </c>
       <c r="J23" s="2">
         <f>Sheet2!B20</f>
-        <v>12.58</v>
+        <v>13.17</v>
       </c>
     </row>
     <row r="24" spans="2:10" ht="17.399999999999999">
@@ -1447,22 +1447,22 @@
       </c>
       <c r="D24" s="14">
         <f t="shared" si="0"/>
-        <v>13.665100000000001</v>
+        <v>8.6397999999999993</v>
       </c>
       <c r="E24" s="15">
         <f t="shared" si="1"/>
-        <v>11.68</v>
+        <v>10.87</v>
       </c>
       <c r="F24" s="16" t="s">
         <v>25</v>
       </c>
       <c r="I24" s="2">
         <f>Sheet2!A21</f>
-        <v>13.665100000000001</v>
+        <v>8.6397999999999993</v>
       </c>
       <c r="J24" s="2">
         <f>Sheet2!B21</f>
-        <v>11.68</v>
+        <v>10.87</v>
       </c>
     </row>
     <row r="25" spans="2:10" ht="17.399999999999999">
@@ -1474,7 +1474,7 @@
       </c>
       <c r="D25" s="14">
         <f t="shared" si="0"/>
-        <v>6.4859999999999998</v>
+        <v>11.8163</v>
       </c>
       <c r="E25" s="15">
         <f t="shared" si="1"/>
@@ -1485,7 +1485,7 @@
       </c>
       <c r="I25" s="2">
         <f>Sheet2!A22</f>
-        <v>6.4859999999999998</v>
+        <v>11.8163</v>
       </c>
       <c r="J25" s="2">
         <f>Sheet2!B22</f>
@@ -1501,7 +1501,7 @@
       </c>
       <c r="D26" s="14">
         <f t="shared" si="0"/>
-        <v>6.8231000000000002</v>
+        <v>13.5662</v>
       </c>
       <c r="E26" s="15">
         <f t="shared" si="1"/>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="I26" s="2">
         <f>Sheet2!A23</f>
-        <v>6.8231000000000002</v>
+        <v>13.5662</v>
       </c>
       <c r="J26" s="2">
         <f>Sheet2!B23</f>
@@ -1528,22 +1528,22 @@
       </c>
       <c r="D27" s="14">
         <f t="shared" si="0"/>
-        <v>74.992400000000004</v>
+        <v>109.9134</v>
       </c>
       <c r="E27" s="15">
         <f t="shared" si="1"/>
-        <v>12.59</v>
+        <v>12.89</v>
       </c>
       <c r="F27" s="16" t="s">
         <v>25</v>
       </c>
       <c r="I27" s="2">
         <f>Sheet2!A24</f>
-        <v>74.992400000000004</v>
+        <v>109.9134</v>
       </c>
       <c r="J27" s="2">
         <f>Sheet2!B24</f>
-        <v>12.59</v>
+        <v>12.89</v>
       </c>
     </row>
     <row r="28" spans="2:10" ht="17.399999999999999">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="D28" s="14">
         <f t="shared" si="0"/>
-        <v>5.5</v>
+        <v>3.7467999999999999</v>
       </c>
       <c r="E28" s="15">
         <f t="shared" si="1"/>
@@ -1566,7 +1566,7 @@
       </c>
       <c r="I28" s="2">
         <f>Sheet2!A25</f>
-        <v>5.5</v>
+        <v>3.7467999999999999</v>
       </c>
       <c r="J28" s="2">
         <f>Sheet2!B25</f>
@@ -1582,22 +1582,22 @@
       </c>
       <c r="D29" s="14">
         <f t="shared" si="0"/>
-        <v>3.972</v>
+        <v>2.2069999999999999</v>
       </c>
       <c r="E29" s="15">
         <f t="shared" si="1"/>
-        <v>9.8330000000000002</v>
+        <v>8.4169999999999998</v>
       </c>
       <c r="F29" s="16" t="s">
         <v>25</v>
       </c>
       <c r="I29" s="2">
         <f>Sheet2!A26</f>
-        <v>3.972</v>
+        <v>2.2069999999999999</v>
       </c>
       <c r="J29" s="2">
         <f>Sheet2!B26</f>
-        <v>9.8330000000000002</v>
+        <v>8.4169999999999998</v>
       </c>
     </row>
     <row r="30" spans="2:10" ht="17.399999999999999">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="D30" s="14">
         <f t="shared" si="0"/>
-        <v>32.328000000000003</v>
+        <v>22.94</v>
       </c>
       <c r="E30" s="15">
         <f t="shared" si="1"/>
@@ -1620,7 +1620,7 @@
       </c>
       <c r="I30" s="2">
         <f>Sheet2!A27</f>
-        <v>32.328000000000003</v>
+        <v>22.94</v>
       </c>
       <c r="J30" s="2">
         <f>Sheet2!B27</f>
@@ -1636,28 +1636,28 @@
       </c>
       <c r="D31" s="14">
         <f t="shared" si="0"/>
-        <v>12.143000000000001</v>
+        <v>12.913999999999998</v>
       </c>
       <c r="E31" s="15">
         <f t="shared" si="1"/>
-        <v>6.0715000000000003</v>
+        <v>6.456999999999999</v>
       </c>
       <c r="F31" s="16" t="s">
         <v>25</v>
       </c>
       <c r="I31" s="2">
         <f>Sheet2!A28</f>
-        <v>12.143000000000001</v>
+        <v>12.913999999999998</v>
       </c>
       <c r="J31" s="2">
         <f>Sheet2!B28</f>
-        <v>6.0715000000000003</v>
+        <v>6.456999999999999</v>
       </c>
     </row>
     <row r="32" spans="2:10">
       <c r="B32" s="23" t="str">
         <f>"  本月风电累计发电量"&amp;TEXT(C40,"0")&amp;"万kWh；本年累计"&amp;TEXT(D40,"0.00")&amp;"亿kWh。本月光伏累计发电量"&amp;TEXT(C41,"0")&amp;"万kWh；本年累计"&amp;TEXT(D41,"0.00")&amp;"亿kWh。产业合计年累计发电量"&amp;TEXT(C42,"0.00")&amp;"亿kWh。截至目前，2019年日均发电量"&amp;TEXT(D42,"0")&amp;"万kWh。"</f>
-        <v xml:space="preserve">  本月风电累计发电量11414万kWh；本年累计10.43亿kWh。本月光伏累计发电量2168万kWh；本年累计1.69亿kWh。产业合计年累计发电量12.13亿kWh。截至目前，2019年日均发电量1201万kWh。</v>
+        <v xml:space="preserve">  本月风电累计发电量30237万kWh；本年累计12.43亿kWh。本月光伏累计发电量3963万kWh；本年累计1.89亿kWh。产业合计年累计发电量14.33亿kWh。截至目前，2019年日均发电量1291万kWh。</v>
       </c>
       <c r="C32" s="24"/>
       <c r="D32" s="25"/>
@@ -1699,11 +1699,11 @@
     <row r="40" spans="2:7" ht="15.6">
       <c r="C40" s="17">
         <f>Sheet3!A1</f>
-        <v>11413.88814494273</v>
+        <v>30236.849928912441</v>
       </c>
       <c r="D40" s="2">
         <f>Sheet3!B1</f>
-        <v>10.430605148264643</v>
+        <v>12.434529148385394</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="2" t="s">
@@ -1716,11 +1716,11 @@
     <row r="41" spans="2:7" ht="15.6">
       <c r="C41" s="17">
         <f>Sheet3!A2</f>
-        <v>2167.571576737485</v>
+        <v>3962.5538116150656</v>
       </c>
       <c r="D41" s="2">
         <f>Sheet3!B2</f>
-        <v>1.6947692816759945</v>
+        <v>1.8923628557299137</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" s="2" t="s">
@@ -1733,11 +1733,11 @@
     <row r="42" spans="2:7" ht="15.6">
       <c r="C42" s="17">
         <f>Sheet3!A3</f>
-        <v>12.125374429940639</v>
+        <v>14.326892004115308</v>
       </c>
       <c r="D42" s="2">
         <f>Sheet3!B3</f>
-        <v>1200.5321217763008</v>
+        <v>1290.7109913617396</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2" t="s">
@@ -1750,11 +1750,11 @@
     <row r="43" spans="2:7" ht="15.6">
       <c r="C43" s="17">
         <f>Sheet3!A4</f>
-        <v>1039.7240143879762</v>
+        <v>1265.9339634600296</v>
       </c>
       <c r="D43" s="2">
         <f>Sheet3!B4</f>
-        <v>869.18947852343115</v>
+        <v>1051.9031661072681</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2" t="s">
@@ -1767,7 +1767,7 @@
     <row r="44" spans="2:7" ht="15.6">
       <c r="C44" s="17">
         <f>Sheet3!A5</f>
-        <v>170.53453586454501</v>
+        <v>214.0307973527614</v>
       </c>
       <c r="D44" s="2">
         <f>Sheet3!B5</f>
@@ -1784,11 +1784,11 @@
     <row r="45" spans="2:7" ht="15.6">
       <c r="C45" s="17">
         <f>Sheet3!A6</f>
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D45" s="2">
         <f>Sheet3!B6</f>
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="2" t="s">
@@ -1822,175 +1822,175 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1">
-        <v>1.8420000000000001</v>
+        <v>30.619</v>
       </c>
       <c r="B1">
-        <v>2.87</v>
+        <v>5.43</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>2.1859999999999999</v>
+        <v>24.198</v>
       </c>
       <c r="B2">
-        <v>2.25</v>
+        <v>5.47</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>7.9080000000000004</v>
+        <v>50.600999999999999</v>
       </c>
       <c r="B3">
-        <v>2.6</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>10.085000000000001</v>
+        <v>8.43</v>
       </c>
       <c r="B4">
-        <v>3.58</v>
+        <v>4.18</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>19.501000000000001</v>
+        <v>19.28</v>
       </c>
       <c r="B5">
-        <v>4.46</v>
+        <v>4.72</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>94.8188481675285</v>
+        <v>30.408376963354598</v>
       </c>
       <c r="B6">
-        <v>4.3</v>
+        <v>2.8383333333333298</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>53.3920150896057</v>
+        <v>9.6835045063997107</v>
       </c>
       <c r="B7">
-        <v>5.43</v>
+        <v>3.2816666666666698</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>18.991315266296901</v>
+        <v>30.207134637513899</v>
       </c>
       <c r="B8">
-        <v>3.9975000000000001</v>
+        <v>4.9041666666666703</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>44.155200000000001</v>
+        <v>4.6113999999999997</v>
       </c>
       <c r="B9">
-        <v>5.35</v>
+        <v>2.19</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>48.156799999999997</v>
+        <v>4.4808500000000002</v>
       </c>
       <c r="B10">
-        <v>6.12</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>213.29079999999999</v>
+        <v>37.106999999999999</v>
       </c>
       <c r="B11">
-        <v>5.7</v>
+        <v>2.57</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>70.770200000000003</v>
+        <v>59.815399999999997</v>
       </c>
       <c r="B12">
-        <v>8.39</v>
+        <v>7.5250000000000004</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>33.115299999999998</v>
+        <v>48.861400000000003</v>
       </c>
       <c r="B13">
-        <v>8.77</v>
+        <v>13.94</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>117.7222</v>
+        <v>143.209</v>
       </c>
       <c r="B14">
-        <v>10.18</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>39.909999999999997</v>
+        <v>85.12</v>
       </c>
       <c r="B15">
-        <v>5.29</v>
+        <v>7.71</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>62.75</v>
+        <v>108.48</v>
       </c>
       <c r="B16">
-        <v>5.46</v>
+        <v>7.61</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>12.167999999999999</v>
+        <v>23.853999999999999</v>
       </c>
       <c r="B17">
-        <v>3.57</v>
+        <v>4.84</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>12.4</v>
+        <v>40</v>
       </c>
       <c r="B18">
-        <v>4.37</v>
+        <v>6.56</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>6.0267999999999997</v>
+        <v>292.93709999999999</v>
       </c>
       <c r="B19">
-        <v>2.6</v>
+        <v>8.6999999999999993</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>14.624935864545</v>
+        <v>28.287297352761399</v>
       </c>
       <c r="B20">
-        <v>12.58</v>
+        <v>13.17</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>13.665100000000001</v>
+        <v>8.6397999999999993</v>
       </c>
       <c r="B21">
-        <v>11.68</v>
+        <v>10.87</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>6.4859999999999998</v>
+        <v>11.8163</v>
       </c>
       <c r="B22">
         <v>12</v>
@@ -1998,7 +1998,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>6.8231000000000002</v>
+        <v>13.5662</v>
       </c>
       <c r="B23">
         <v>12</v>
@@ -2006,15 +2006,15 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>74.992400000000004</v>
+        <v>109.9134</v>
       </c>
       <c r="B24">
-        <v>12.59</v>
+        <v>12.89</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>5.5</v>
+        <v>3.7467999999999999</v>
       </c>
       <c r="B25">
         <v>10</v>
@@ -2022,15 +2022,15 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>3.972</v>
+        <v>2.2069999999999999</v>
       </c>
       <c r="B26">
-        <v>9.8330000000000002</v>
+        <v>8.4169999999999998</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>32.328000000000003</v>
+        <v>22.94</v>
       </c>
       <c r="B27">
         <v>12.75</v>
@@ -2038,10 +2038,10 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>12.143000000000001</v>
+        <v>12.913999999999998</v>
       </c>
       <c r="B28">
-        <v>6.0715000000000003</v>
+        <v>6.456999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -2063,39 +2063,39 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1">
-        <v>11413.88814494273</v>
+        <v>30236.849928912441</v>
       </c>
       <c r="B1">
-        <v>10.430605148264643</v>
+        <v>12.434529148385394</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>2167.571576737485</v>
+        <v>3962.5538116150656</v>
       </c>
       <c r="B2">
-        <v>1.6947692816759945</v>
+        <v>1.8923628557299137</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>12.125374429940639</v>
+        <v>14.326892004115308</v>
       </c>
       <c r="B3">
-        <v>1200.5321217763008</v>
+        <v>1290.7109913617396</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>1039.7240143879762</v>
+        <v>1265.9339634600296</v>
       </c>
       <c r="B4">
-        <v>869.18947852343115</v>
+        <v>1051.9031661072681</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>170.53453586454501</v>
+        <v>214.0307973527614</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -2103,10 +2103,10 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B6">
-        <v>101</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/日报.xlsx
+++ b/日报.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\aa0011\ribao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0E7C50F-F51B-4065-AEF1-D9EEC39623C8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B8B450C-5635-4D29-827C-6425C6281201}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="720" windowWidth="9840" windowHeight="4896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1368" yWindow="1368" windowWidth="9840" windowHeight="4896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,13 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -246,7 +253,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39985351115451523"/>
+        <fgColor theme="9" tint="0.39967040009765925"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -258,7 +265,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79985961485641044"/>
+        <fgColor theme="9" tint="0.79967650379955446"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -468,10 +475,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -844,38 +851,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:J45"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+    <sheetView topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="2" width="8.88671875" style="2"/>
-    <col min="3" max="3" width="12.21875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="28.21875" style="1" customWidth="1"/>
+    <col min="1" max="2" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="12.21875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="28.21875" style="2" customWidth="1"/>
     <col min="5" max="5" width="14.77734375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="17.109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="2"/>
-    <col min="8" max="11" width="12.88671875" style="2"/>
-    <col min="12" max="16384" width="8.88671875" style="2"/>
+    <col min="6" max="6" width="17.109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" style="1"/>
+    <col min="8" max="11" width="12.88671875" style="1"/>
+    <col min="12" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" s="1" customFormat="1" ht="40.049999999999997" customHeight="1">
+    <row r="2" spans="2:10" s="2" customFormat="1" ht="40.049999999999997" customHeight="1">
       <c r="B2" s="18" t="str">
         <f>"2019年"&amp;D44&amp;"月"&amp;C45&amp;"日，日发电量"&amp;TEXT(I2,"0")&amp;"万千瓦时，其中风电"&amp;TEXT(H2,"0")&amp;"万kWh，光伏"&amp;TEXT(H3,"0")&amp;"万kWh"</f>
-        <v>2019年4月21日，日发电量1266万千瓦时，其中风电1052万kWh，光伏214万kWh</v>
+        <v>2019年6月2日，日发电量1929万千瓦时，其中风电1686万kWh，光伏244万kWh</v>
       </c>
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
       <c r="E2" s="19"/>
       <c r="F2" s="20"/>
-      <c r="H2" s="1">
+      <c r="H2" s="2">
         <f>SUM(D4:D22)</f>
-        <v>1051.9031661072681</v>
-      </c>
-      <c r="I2" s="1">
+        <v>1685.5598105217498</v>
+      </c>
+      <c r="I2" s="2">
         <f>SUM(H2:H3)</f>
-        <v>1265.9339634600296</v>
+        <v>1929.0730209054987</v>
       </c>
     </row>
     <row r="3" spans="2:10" ht="17.399999999999999">
@@ -892,11 +899,11 @@
         <v>3</v>
       </c>
       <c r="F3" s="22"/>
-      <c r="H3" s="1">
+      <c r="H3" s="2">
         <f>SUM(D23:D31)</f>
-        <v>214.0307973527614</v>
-      </c>
-      <c r="I3" s="1"/>
+        <v>243.5132103837488</v>
+      </c>
+      <c r="I3" s="2"/>
     </row>
     <row r="4" spans="2:10" ht="17.399999999999999">
       <c r="B4" s="7">
@@ -907,22 +914,22 @@
       </c>
       <c r="D4" s="9">
         <f t="shared" ref="D4:D31" si="0">I4</f>
-        <v>30.619</v>
+        <v>90.515000000000001</v>
       </c>
       <c r="E4" s="10">
         <f t="shared" ref="E4:E31" si="1">J4</f>
-        <v>5.43</v>
+        <v>8.9499999999999993</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="1">
         <f>Sheet2!A1</f>
-        <v>30.619</v>
-      </c>
-      <c r="J4" s="2">
+        <v>90.515000000000001</v>
+      </c>
+      <c r="J4" s="1">
         <f>Sheet2!B1</f>
-        <v>5.43</v>
+        <v>8.9499999999999993</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="17.399999999999999">
@@ -934,22 +941,22 @@
       </c>
       <c r="D5" s="9">
         <f t="shared" si="0"/>
-        <v>24.198</v>
+        <v>56.5</v>
       </c>
       <c r="E5" s="10">
         <f t="shared" si="1"/>
-        <v>5.47</v>
+        <v>8.5</v>
       </c>
       <c r="F5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="1">
         <f>Sheet2!A2</f>
-        <v>24.198</v>
-      </c>
-      <c r="J5" s="2">
+        <v>56.5</v>
+      </c>
+      <c r="J5" s="1">
         <f>Sheet2!B2</f>
-        <v>5.47</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="17.399999999999999">
@@ -961,22 +968,22 @@
       </c>
       <c r="D6" s="9">
         <f t="shared" si="0"/>
-        <v>50.600999999999999</v>
+        <v>152.1953</v>
       </c>
       <c r="E6" s="10">
         <f t="shared" si="1"/>
-        <v>4.8</v>
+        <v>9.16</v>
       </c>
       <c r="F6" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="1">
         <f>Sheet2!A3</f>
-        <v>50.600999999999999</v>
-      </c>
-      <c r="J6" s="2">
+        <v>152.1953</v>
+      </c>
+      <c r="J6" s="1">
         <f>Sheet2!B3</f>
-        <v>4.8</v>
+        <v>9.16</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="17.399999999999999">
@@ -988,22 +995,22 @@
       </c>
       <c r="D7" s="9">
         <f t="shared" si="0"/>
-        <v>8.43</v>
+        <v>31.382000000000001</v>
       </c>
       <c r="E7" s="10">
         <f t="shared" si="1"/>
-        <v>4.18</v>
+        <v>6.05</v>
       </c>
       <c r="F7" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="1">
         <f>Sheet2!A4</f>
-        <v>8.43</v>
-      </c>
-      <c r="J7" s="2">
+        <v>31.382000000000001</v>
+      </c>
+      <c r="J7" s="1">
         <f>Sheet2!B4</f>
-        <v>4.18</v>
+        <v>6.05</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="17.399999999999999">
@@ -1015,22 +1022,22 @@
       </c>
       <c r="D8" s="9">
         <f t="shared" si="0"/>
-        <v>19.28</v>
+        <v>40.985999999999997</v>
       </c>
       <c r="E8" s="10">
         <f t="shared" si="1"/>
-        <v>4.72</v>
+        <v>7.43</v>
       </c>
       <c r="F8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="1">
         <f>Sheet2!A5</f>
-        <v>19.28</v>
-      </c>
-      <c r="J8" s="2">
+        <v>40.985999999999997</v>
+      </c>
+      <c r="J8" s="1">
         <f>Sheet2!B5</f>
-        <v>4.72</v>
+        <v>7.43</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="17.399999999999999">
@@ -1042,22 +1049,22 @@
       </c>
       <c r="D9" s="9">
         <f t="shared" si="0"/>
-        <v>30.408376963354598</v>
+        <v>91.082070047057798</v>
       </c>
       <c r="E9" s="10">
         <f t="shared" si="1"/>
-        <v>2.8383333333333298</v>
+        <v>4.6754166666666697</v>
       </c>
       <c r="F9" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="1">
         <f>Sheet2!A6</f>
-        <v>30.408376963354598</v>
-      </c>
-      <c r="J9" s="2">
+        <v>91.082070047057798</v>
+      </c>
+      <c r="J9" s="1">
         <f>Sheet2!B6</f>
-        <v>2.8383333333333298</v>
+        <v>4.6754166666666697</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="17.399999999999999">
@@ -1069,22 +1076,22 @@
       </c>
       <c r="D10" s="9">
         <f t="shared" si="0"/>
-        <v>9.6835045063997107</v>
+        <v>42.224545264483901</v>
       </c>
       <c r="E10" s="10">
         <f t="shared" si="1"/>
-        <v>3.2816666666666698</v>
+        <v>5.2562499999999996</v>
       </c>
       <c r="F10" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="1">
         <f>Sheet2!A7</f>
-        <v>9.6835045063997107</v>
-      </c>
-      <c r="J10" s="2">
+        <v>42.224545264483901</v>
+      </c>
+      <c r="J10" s="1">
         <f>Sheet2!B7</f>
-        <v>3.2816666666666698</v>
+        <v>5.2562499999999996</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="17.399999999999999">
@@ -1096,22 +1103,22 @@
       </c>
       <c r="D11" s="9">
         <f t="shared" si="0"/>
-        <v>30.207134637513899</v>
+        <v>62.120895210208197</v>
       </c>
       <c r="E11" s="10">
         <f t="shared" si="1"/>
-        <v>4.9041666666666703</v>
+        <v>6.1483333333333299</v>
       </c>
       <c r="F11" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="1">
         <f>Sheet2!A8</f>
-        <v>30.207134637513899</v>
-      </c>
-      <c r="J11" s="2">
+        <v>62.120895210208197</v>
+      </c>
+      <c r="J11" s="1">
         <f>Sheet2!B8</f>
-        <v>4.9041666666666703</v>
+        <v>6.1483333333333299</v>
       </c>
     </row>
     <row r="12" spans="2:10" ht="17.399999999999999">
@@ -1123,22 +1130,22 @@
       </c>
       <c r="D12" s="9">
         <f t="shared" si="0"/>
-        <v>4.6113999999999997</v>
+        <v>77.414599999999993</v>
       </c>
       <c r="E12" s="10">
         <f t="shared" si="1"/>
-        <v>2.19</v>
+        <v>6.44</v>
       </c>
       <c r="F12" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12" s="1">
         <f>Sheet2!A9</f>
-        <v>4.6113999999999997</v>
-      </c>
-      <c r="J12" s="2">
+        <v>77.414599999999993</v>
+      </c>
+      <c r="J12" s="1">
         <f>Sheet2!B9</f>
-        <v>2.19</v>
+        <v>6.44</v>
       </c>
     </row>
     <row r="13" spans="2:10" ht="17.399999999999999">
@@ -1150,22 +1157,22 @@
       </c>
       <c r="D13" s="9">
         <f t="shared" si="0"/>
-        <v>4.4808500000000002</v>
+        <v>60.809199999999997</v>
       </c>
       <c r="E13" s="10">
         <f t="shared" si="1"/>
-        <v>1.96</v>
+        <v>5.36</v>
       </c>
       <c r="F13" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13" s="1">
         <f>Sheet2!A10</f>
-        <v>4.4808500000000002</v>
-      </c>
-      <c r="J13" s="2">
+        <v>60.809199999999997</v>
+      </c>
+      <c r="J13" s="1">
         <f>Sheet2!B10</f>
-        <v>1.96</v>
+        <v>5.36</v>
       </c>
     </row>
     <row r="14" spans="2:10" ht="17.399999999999999">
@@ -1177,22 +1184,22 @@
       </c>
       <c r="D14" s="9">
         <f t="shared" si="0"/>
-        <v>37.106999999999999</v>
+        <v>182.91069999999999</v>
       </c>
       <c r="E14" s="10">
         <f t="shared" si="1"/>
-        <v>2.57</v>
+        <v>5.46</v>
       </c>
       <c r="F14" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14" s="1">
         <f>Sheet2!A11</f>
-        <v>37.106999999999999</v>
-      </c>
-      <c r="J14" s="2">
+        <v>182.91069999999999</v>
+      </c>
+      <c r="J14" s="1">
         <f>Sheet2!B11</f>
-        <v>2.57</v>
+        <v>5.46</v>
       </c>
     </row>
     <row r="15" spans="2:10" ht="17.399999999999999">
@@ -1204,22 +1211,22 @@
       </c>
       <c r="D15" s="9">
         <f t="shared" si="0"/>
-        <v>59.815399999999997</v>
+        <v>116.66579999999999</v>
       </c>
       <c r="E15" s="10">
         <f t="shared" si="1"/>
-        <v>7.5250000000000004</v>
+        <v>11.33</v>
       </c>
       <c r="F15" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I15" s="1">
         <f>Sheet2!A12</f>
-        <v>59.815399999999997</v>
-      </c>
-      <c r="J15" s="2">
+        <v>116.66579999999999</v>
+      </c>
+      <c r="J15" s="1">
         <f>Sheet2!B12</f>
-        <v>7.5250000000000004</v>
+        <v>11.33</v>
       </c>
     </row>
     <row r="16" spans="2:10" ht="17.399999999999999">
@@ -1231,22 +1238,22 @@
       </c>
       <c r="D16" s="9">
         <f t="shared" si="0"/>
-        <v>48.861400000000003</v>
+        <v>56.263800000000003</v>
       </c>
       <c r="E16" s="10">
         <f t="shared" si="1"/>
-        <v>13.94</v>
+        <v>13.102499999999999</v>
       </c>
       <c r="F16" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="I16" s="2">
+      <c r="I16" s="1">
         <f>Sheet2!A13</f>
-        <v>48.861400000000003</v>
-      </c>
-      <c r="J16" s="2">
+        <v>56.263800000000003</v>
+      </c>
+      <c r="J16" s="1">
         <f>Sheet2!B13</f>
-        <v>13.94</v>
+        <v>13.102499999999999</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="17.399999999999999">
@@ -1258,22 +1265,22 @@
       </c>
       <c r="D17" s="9">
         <f t="shared" si="0"/>
-        <v>143.209</v>
+        <v>118.29589999999999</v>
       </c>
       <c r="E17" s="10">
         <f t="shared" si="1"/>
-        <v>15.5</v>
+        <v>15.416666666666666</v>
       </c>
       <c r="F17" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="I17" s="2">
+      <c r="I17" s="1">
         <f>Sheet2!A14</f>
-        <v>143.209</v>
-      </c>
-      <c r="J17" s="2">
+        <v>118.29589999999999</v>
+      </c>
+      <c r="J17" s="1">
         <f>Sheet2!B14</f>
-        <v>15.5</v>
+        <v>15.416666666666666</v>
       </c>
     </row>
     <row r="18" spans="2:10" ht="17.399999999999999">
@@ -1285,22 +1292,22 @@
       </c>
       <c r="D18" s="9">
         <f t="shared" si="0"/>
-        <v>85.12</v>
+        <v>100</v>
       </c>
       <c r="E18" s="10">
         <f t="shared" si="1"/>
-        <v>7.71</v>
+        <v>10.220000000000001</v>
       </c>
       <c r="F18" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="I18" s="2">
+      <c r="I18" s="1">
         <f>Sheet2!A15</f>
-        <v>85.12</v>
-      </c>
-      <c r="J18" s="2">
+        <v>100</v>
+      </c>
+      <c r="J18" s="1">
         <f>Sheet2!B15</f>
-        <v>7.71</v>
+        <v>10.220000000000001</v>
       </c>
     </row>
     <row r="19" spans="2:10" ht="17.399999999999999">
@@ -1312,22 +1319,22 @@
       </c>
       <c r="D19" s="9">
         <f t="shared" si="0"/>
-        <v>108.48</v>
+        <v>124.881</v>
       </c>
       <c r="E19" s="10">
         <f t="shared" si="1"/>
-        <v>7.61</v>
+        <v>9.3699999999999992</v>
       </c>
       <c r="F19" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="I19" s="2">
+      <c r="I19" s="1">
         <f>Sheet2!A16</f>
-        <v>108.48</v>
-      </c>
-      <c r="J19" s="2">
+        <v>124.881</v>
+      </c>
+      <c r="J19" s="1">
         <f>Sheet2!B16</f>
-        <v>7.61</v>
+        <v>9.3699999999999992</v>
       </c>
     </row>
     <row r="20" spans="2:10" ht="17.399999999999999">
@@ -1339,22 +1346,22 @@
       </c>
       <c r="D20" s="9">
         <f t="shared" si="0"/>
-        <v>23.853999999999999</v>
+        <v>74.436000000000007</v>
       </c>
       <c r="E20" s="10">
         <f t="shared" si="1"/>
-        <v>4.84</v>
+        <v>9.26</v>
       </c>
       <c r="F20" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="I20" s="2">
+      <c r="I20" s="1">
         <f>Sheet2!A17</f>
-        <v>23.853999999999999</v>
-      </c>
-      <c r="J20" s="2">
+        <v>74.436000000000007</v>
+      </c>
+      <c r="J20" s="1">
         <f>Sheet2!B17</f>
-        <v>4.84</v>
+        <v>9.26</v>
       </c>
     </row>
     <row r="21" spans="2:10" ht="17.399999999999999">
@@ -1366,22 +1373,22 @@
       </c>
       <c r="D21" s="9">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E21" s="10">
         <f t="shared" si="1"/>
-        <v>6.56</v>
+        <v>7.31</v>
       </c>
       <c r="F21" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="I21" s="2">
+      <c r="I21" s="1">
         <f>Sheet2!A18</f>
-        <v>40</v>
-      </c>
-      <c r="J21" s="2">
+        <v>35</v>
+      </c>
+      <c r="J21" s="1">
         <f>Sheet2!B18</f>
-        <v>6.56</v>
+        <v>7.31</v>
       </c>
     </row>
     <row r="22" spans="2:10" ht="17.399999999999999">
@@ -1393,22 +1400,22 @@
       </c>
       <c r="D22" s="9">
         <f t="shared" si="0"/>
-        <v>292.93709999999999</v>
+        <v>171.87700000000001</v>
       </c>
       <c r="E22" s="10">
         <f t="shared" si="1"/>
-        <v>8.6999999999999993</v>
+        <v>6.5</v>
       </c>
       <c r="F22" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="I22" s="2">
+      <c r="I22" s="1">
         <f>Sheet2!A19</f>
-        <v>292.93709999999999</v>
-      </c>
-      <c r="J22" s="2">
+        <v>171.87700000000001</v>
+      </c>
+      <c r="J22" s="1">
         <f>Sheet2!B19</f>
-        <v>8.6999999999999993</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="23" spans="2:10" ht="17.399999999999999">
@@ -1420,22 +1427,22 @@
       </c>
       <c r="D23" s="14">
         <f t="shared" si="0"/>
-        <v>28.287297352761399</v>
+        <v>25.787810383748798</v>
       </c>
       <c r="E23" s="15">
         <f t="shared" si="1"/>
-        <v>13.17</v>
+        <v>24.956791407876299</v>
       </c>
       <c r="F23" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="I23" s="2">
+      <c r="I23" s="1">
         <f>Sheet2!A20</f>
-        <v>28.287297352761399</v>
-      </c>
-      <c r="J23" s="2">
+        <v>25.787810383748798</v>
+      </c>
+      <c r="J23" s="1">
         <f>Sheet2!B20</f>
-        <v>13.17</v>
+        <v>24.956791407876299</v>
       </c>
     </row>
     <row r="24" spans="2:10" ht="17.399999999999999">
@@ -1447,22 +1454,22 @@
       </c>
       <c r="D24" s="14">
         <f t="shared" si="0"/>
-        <v>8.6397999999999993</v>
+        <v>8.3914000000000009</v>
       </c>
       <c r="E24" s="15">
         <f t="shared" si="1"/>
-        <v>10.87</v>
+        <v>16.55</v>
       </c>
       <c r="F24" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="I24" s="2">
+      <c r="I24" s="1">
         <f>Sheet2!A21</f>
-        <v>8.6397999999999993</v>
-      </c>
-      <c r="J24" s="2">
+        <v>8.3914000000000009</v>
+      </c>
+      <c r="J24" s="1">
         <f>Sheet2!B21</f>
-        <v>10.87</v>
+        <v>16.55</v>
       </c>
     </row>
     <row r="25" spans="2:10" ht="17.399999999999999">
@@ -1474,22 +1481,22 @@
       </c>
       <c r="D25" s="14">
         <f t="shared" si="0"/>
-        <v>11.8163</v>
+        <v>11.0852</v>
       </c>
       <c r="E25" s="15">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>23.509599999999999</v>
       </c>
       <c r="F25" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="I25" s="2">
+      <c r="I25" s="1">
         <f>Sheet2!A22</f>
-        <v>11.8163</v>
-      </c>
-      <c r="J25" s="2">
+        <v>11.0852</v>
+      </c>
+      <c r="J25" s="1">
         <f>Sheet2!B22</f>
-        <v>12</v>
+        <v>23.509599999999999</v>
       </c>
     </row>
     <row r="26" spans="2:10" ht="17.399999999999999">
@@ -1501,22 +1508,22 @@
       </c>
       <c r="D26" s="14">
         <f t="shared" si="0"/>
-        <v>13.5662</v>
+        <v>12.1785</v>
       </c>
       <c r="E26" s="15">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>29.764800000000001</v>
       </c>
       <c r="F26" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="I26" s="2">
+      <c r="I26" s="1">
         <f>Sheet2!A23</f>
-        <v>13.5662</v>
-      </c>
-      <c r="J26" s="2">
+        <v>12.1785</v>
+      </c>
+      <c r="J26" s="1">
         <f>Sheet2!B23</f>
-        <v>12</v>
+        <v>29.764800000000001</v>
       </c>
     </row>
     <row r="27" spans="2:10" ht="17.399999999999999">
@@ -1528,22 +1535,22 @@
       </c>
       <c r="D27" s="14">
         <f t="shared" si="0"/>
-        <v>109.9134</v>
+        <v>127.3845</v>
       </c>
       <c r="E27" s="15">
         <f t="shared" si="1"/>
-        <v>12.89</v>
+        <v>30.236000000000001</v>
       </c>
       <c r="F27" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="I27" s="2">
+      <c r="I27" s="1">
         <f>Sheet2!A24</f>
-        <v>109.9134</v>
-      </c>
-      <c r="J27" s="2">
+        <v>127.3845</v>
+      </c>
+      <c r="J27" s="1">
         <f>Sheet2!B24</f>
-        <v>12.89</v>
+        <v>30.236000000000001</v>
       </c>
     </row>
     <row r="28" spans="2:10" ht="17.399999999999999">
@@ -1555,22 +1562,22 @@
       </c>
       <c r="D28" s="14">
         <f t="shared" si="0"/>
-        <v>3.7467999999999999</v>
+        <v>11.6798</v>
       </c>
       <c r="E28" s="15">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>25.646999999999998</v>
       </c>
       <c r="F28" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="I28" s="2">
+      <c r="I28" s="1">
         <f>Sheet2!A25</f>
-        <v>3.7467999999999999</v>
-      </c>
-      <c r="J28" s="2">
+        <v>11.6798</v>
+      </c>
+      <c r="J28" s="1">
         <f>Sheet2!B25</f>
-        <v>10</v>
+        <v>25.646999999999998</v>
       </c>
     </row>
     <row r="29" spans="2:10" ht="17.399999999999999">
@@ -1582,22 +1589,22 @@
       </c>
       <c r="D29" s="14">
         <f t="shared" si="0"/>
-        <v>2.2069999999999999</v>
+        <v>6.024</v>
       </c>
       <c r="E29" s="15">
         <f t="shared" si="1"/>
-        <v>8.4169999999999998</v>
+        <v>25.56</v>
       </c>
       <c r="F29" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="I29" s="2">
+      <c r="I29" s="1">
         <f>Sheet2!A26</f>
-        <v>2.2069999999999999</v>
-      </c>
-      <c r="J29" s="2">
+        <v>6.024</v>
+      </c>
+      <c r="J29" s="1">
         <f>Sheet2!B26</f>
-        <v>8.4169999999999998</v>
+        <v>25.56</v>
       </c>
     </row>
     <row r="30" spans="2:10" ht="17.399999999999999">
@@ -1609,22 +1616,22 @@
       </c>
       <c r="D30" s="14">
         <f t="shared" si="0"/>
-        <v>22.94</v>
+        <v>26.745999999999999</v>
       </c>
       <c r="E30" s="15">
         <f t="shared" si="1"/>
-        <v>12.75</v>
+        <v>24.369</v>
       </c>
       <c r="F30" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="I30" s="2">
+      <c r="I30" s="1">
         <f>Sheet2!A27</f>
-        <v>22.94</v>
-      </c>
-      <c r="J30" s="2">
+        <v>26.745999999999999</v>
+      </c>
+      <c r="J30" s="1">
         <f>Sheet2!B27</f>
-        <v>12.75</v>
+        <v>24.369</v>
       </c>
     </row>
     <row r="31" spans="2:10" ht="17.399999999999999">
@@ -1636,28 +1643,28 @@
       </c>
       <c r="D31" s="14">
         <f t="shared" si="0"/>
-        <v>12.913999999999998</v>
+        <v>14.236000000000001</v>
       </c>
       <c r="E31" s="15">
         <f t="shared" si="1"/>
-        <v>6.456999999999999</v>
+        <v>22.24</v>
       </c>
       <c r="F31" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="I31" s="2">
+      <c r="I31" s="1">
         <f>Sheet2!A28</f>
-        <v>12.913999999999998</v>
-      </c>
-      <c r="J31" s="2">
+        <v>14.236000000000001</v>
+      </c>
+      <c r="J31" s="1">
         <f>Sheet2!B28</f>
-        <v>6.456999999999999</v>
+        <v>22.24</v>
       </c>
     </row>
     <row r="32" spans="2:10">
       <c r="B32" s="23" t="str">
         <f>"  本月风电累计发电量"&amp;TEXT(C40,"0")&amp;"万kWh；本年累计"&amp;TEXT(D40,"0.00")&amp;"亿kWh。本月光伏累计发电量"&amp;TEXT(C41,"0")&amp;"万kWh；本年累计"&amp;TEXT(D41,"0.00")&amp;"亿kWh。产业合计年累计发电量"&amp;TEXT(C42,"0.00")&amp;"亿kWh。截至目前，2019年日均发电量"&amp;TEXT(D42,"0")&amp;"万kWh。"</f>
-        <v xml:space="preserve">  本月风电累计发电量30237万kWh；本年累计12.43亿kWh。本月光伏累计发电量3963万kWh；本年累计1.89亿kWh。产业合计年累计发电量14.33亿kWh。截至目前，2019年日均发电量1291万kWh。</v>
+        <v xml:space="preserve">  本月风电累计发电量3094万kWh；本年累计18.78亿kWh。本月光伏累计发电量445万kWh；本年累计2.72亿kWh。产业合计年累计发电量21.50亿kWh。截至目前，2019年日均发电量1405万kWh。</v>
       </c>
       <c r="C32" s="24"/>
       <c r="D32" s="25"/>
@@ -1693,108 +1700,107 @@
       <c r="F36" s="33"/>
     </row>
     <row r="39" spans="2:7">
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
     </row>
     <row r="40" spans="2:7" ht="15.6">
       <c r="C40" s="17">
         <f>Sheet3!A1</f>
-        <v>30236.849928912441</v>
-      </c>
-      <c r="D40" s="2">
+        <v>3094.3627586963698</v>
+      </c>
+      <c r="D40" s="1">
         <f>Sheet3!B1</f>
-        <v>12.434529148385394</v>
-      </c>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2" t="s">
+        <v>18.784216825372976</v>
+      </c>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G40" s="2" t="s">
+      <c r="G40" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="41" spans="2:7" ht="15.6">
       <c r="C41" s="17">
         <f>Sheet3!A2</f>
-        <v>3962.5538116150656</v>
-      </c>
-      <c r="D41" s="2">
+        <v>444.63905009641979</v>
+      </c>
+      <c r="D41" s="1">
         <f>Sheet3!B2</f>
-        <v>1.8923628557299137</v>
-      </c>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2" t="s">
+        <v>2.7164014885981449</v>
+      </c>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G41" s="2" t="s">
+      <c r="G41" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="42" spans="2:7" ht="15.6">
       <c r="C42" s="17">
         <f>Sheet3!A3</f>
-        <v>14.326892004115308</v>
-      </c>
-      <c r="D42" s="2">
+        <v>21.50061831397112</v>
+      </c>
+      <c r="D42" s="1">
         <f>Sheet3!B3</f>
-        <v>1290.7109913617396</v>
-      </c>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2" t="s">
+        <v>1405.2691708477857</v>
+      </c>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G42" s="2" t="s">
+      <c r="G42" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="43" spans="2:7" ht="15.6">
       <c r="C43" s="17">
         <f>Sheet3!A4</f>
-        <v>1265.9339634600296</v>
-      </c>
-      <c r="D43" s="2">
+        <v>1929.0730209054987</v>
+      </c>
+      <c r="D43" s="1">
         <f>Sheet3!B4</f>
-        <v>1051.9031661072681</v>
-      </c>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2" t="s">
+        <v>1685.5598105217498</v>
+      </c>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G43" s="2" t="s">
+      <c r="G43" s="1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="44" spans="2:7" ht="15.6">
       <c r="C44" s="17">
         <f>Sheet3!A5</f>
-        <v>214.0307973527614</v>
-      </c>
-      <c r="D44" s="2">
-        <f>Sheet3!B5</f>
-        <v>4</v>
-      </c>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2" t="s">
+        <v>243.5132103837488</v>
+      </c>
+      <c r="D44" s="1">
+        <v>6</v>
+      </c>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G44" s="2" t="s">
+      <c r="G44" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="45" spans="2:7" ht="15.6">
       <c r="C45" s="17">
         <f>Sheet3!A6</f>
-        <v>21</v>
-      </c>
-      <c r="D45" s="2">
+        <v>2</v>
+      </c>
+      <c r="D45" s="1">
         <f>Sheet3!B6</f>
-        <v>111</v>
-      </c>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G45" s="2" t="s">
+      <c r="G45" s="1" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1822,226 +1828,226 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1">
-        <v>30.619</v>
+        <v>90.515000000000001</v>
       </c>
       <c r="B1">
-        <v>5.43</v>
+        <v>8.9499999999999993</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>24.198</v>
+        <v>56.5</v>
       </c>
       <c r="B2">
-        <v>5.47</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>50.600999999999999</v>
+        <v>152.1953</v>
       </c>
       <c r="B3">
-        <v>4.8</v>
+        <v>9.16</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>8.43</v>
+        <v>31.382000000000001</v>
       </c>
       <c r="B4">
-        <v>4.18</v>
+        <v>6.05</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>19.28</v>
+        <v>40.985999999999997</v>
       </c>
       <c r="B5">
-        <v>4.72</v>
+        <v>7.43</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>30.408376963354598</v>
+        <v>91.082070047057798</v>
       </c>
       <c r="B6">
-        <v>2.8383333333333298</v>
+        <v>4.6754166666666697</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>9.6835045063997107</v>
+        <v>42.224545264483901</v>
       </c>
       <c r="B7">
-        <v>3.2816666666666698</v>
+        <v>5.2562499999999996</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>30.207134637513899</v>
+        <v>62.120895210208197</v>
       </c>
       <c r="B8">
-        <v>4.9041666666666703</v>
+        <v>6.1483333333333299</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>4.6113999999999997</v>
+        <v>77.414599999999993</v>
       </c>
       <c r="B9">
-        <v>2.19</v>
+        <v>6.44</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>4.4808500000000002</v>
+        <v>60.809199999999997</v>
       </c>
       <c r="B10">
-        <v>1.96</v>
+        <v>5.36</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>37.106999999999999</v>
+        <v>182.91069999999999</v>
       </c>
       <c r="B11">
-        <v>2.57</v>
+        <v>5.46</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>59.815399999999997</v>
+        <v>116.66579999999999</v>
       </c>
       <c r="B12">
-        <v>7.5250000000000004</v>
+        <v>11.33</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>48.861400000000003</v>
+        <v>56.263800000000003</v>
       </c>
       <c r="B13">
-        <v>13.94</v>
+        <v>13.102499999999999</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>143.209</v>
+        <v>118.29589999999999</v>
       </c>
       <c r="B14">
-        <v>15.5</v>
+        <v>15.416666666666666</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>85.12</v>
+        <v>100</v>
       </c>
       <c r="B15">
-        <v>7.71</v>
+        <v>10.220000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>108.48</v>
+        <v>124.881</v>
       </c>
       <c r="B16">
-        <v>7.61</v>
+        <v>9.3699999999999992</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>23.853999999999999</v>
+        <v>74.436000000000007</v>
       </c>
       <c r="B17">
-        <v>4.84</v>
+        <v>9.26</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B18">
-        <v>6.56</v>
+        <v>7.31</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>292.93709999999999</v>
+        <v>171.87700000000001</v>
       </c>
       <c r="B19">
-        <v>8.6999999999999993</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>28.287297352761399</v>
+        <v>25.787810383748798</v>
       </c>
       <c r="B20">
-        <v>13.17</v>
+        <v>24.956791407876299</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>8.6397999999999993</v>
+        <v>8.3914000000000009</v>
       </c>
       <c r="B21">
-        <v>10.87</v>
+        <v>16.55</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>11.8163</v>
+        <v>11.0852</v>
       </c>
       <c r="B22">
-        <v>12</v>
+        <v>23.509599999999999</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>13.5662</v>
+        <v>12.1785</v>
       </c>
       <c r="B23">
-        <v>12</v>
+        <v>29.764800000000001</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>109.9134</v>
+        <v>127.3845</v>
       </c>
       <c r="B24">
-        <v>12.89</v>
+        <v>30.236000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>3.7467999999999999</v>
+        <v>11.6798</v>
       </c>
       <c r="B25">
-        <v>10</v>
+        <v>25.646999999999998</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>2.2069999999999999</v>
+        <v>6.024</v>
       </c>
       <c r="B26">
-        <v>8.4169999999999998</v>
+        <v>25.56</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>22.94</v>
+        <v>26.745999999999999</v>
       </c>
       <c r="B27">
-        <v>12.75</v>
+        <v>24.369</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>12.913999999999998</v>
+        <v>14.236000000000001</v>
       </c>
       <c r="B28">
-        <v>6.456999999999999</v>
+        <v>22.24</v>
       </c>
     </row>
   </sheetData>
@@ -2062,51 +2068,51 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1">
-        <v>30236.849928912441</v>
-      </c>
-      <c r="B1">
-        <v>12.434529148385394</v>
+      <c r="A1" s="1">
+        <v>3094.3627586963698</v>
+      </c>
+      <c r="B1" s="1">
+        <v>18.784216825372976</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2">
-        <v>3962.5538116150656</v>
-      </c>
-      <c r="B2">
-        <v>1.8923628557299137</v>
+      <c r="A2" s="1">
+        <v>444.63905009641979</v>
+      </c>
+      <c r="B2" s="1">
+        <v>2.7164014885981449</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3">
-        <v>14.326892004115308</v>
-      </c>
-      <c r="B3">
-        <v>1290.7109913617396</v>
+      <c r="A3" s="1">
+        <v>21.50061831397112</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1405.2691708477857</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4">
-        <v>1265.9339634600296</v>
-      </c>
-      <c r="B4">
-        <v>1051.9031661072681</v>
+      <c r="A4" s="1">
+        <v>1929.0730209054987</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1685.5598105217498</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5">
-        <v>214.0307973527614</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
+      <c r="A5" s="1">
+        <v>243.5132103837488</v>
+      </c>
+      <c r="B5" s="1">
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6">
-        <v>21</v>
-      </c>
-      <c r="B6">
-        <v>111</v>
+      <c r="A6" s="1">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1">
+        <v>153</v>
       </c>
     </row>
   </sheetData>

--- a/日报.xlsx
+++ b/日报.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\aa0011\ribao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B8B450C-5635-4D29-827C-6425C6281201}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39164DD2-E6BA-41EB-A64A-CFDB86B8A51C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1368" yWindow="1368" windowWidth="9840" windowHeight="4896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="360" windowWidth="9840" windowHeight="4896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="49">
   <si>
     <t>序号</t>
   </si>
@@ -150,6 +150,32 @@
     <t>包  头</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 "/>
+        <charset val="134"/>
+      </rPr>
+      <t>MJ/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>㎡</t>
+    </r>
+  </si>
+  <si>
+    <t>新  发</t>
+  </si>
+  <si>
+    <t>MJ/㎡</t>
+  </si>
+  <si>
     <t>风电累计</t>
   </si>
   <si>
@@ -194,7 +220,7 @@
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0_ "/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -213,6 +239,12 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="宋体 "/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
       <name val="宋体 "/>
       <charset val="134"/>
     </font>
@@ -237,6 +269,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="SimSun"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -253,7 +291,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39967040009765925"/>
+        <fgColor theme="9" tint="0.39942625202185128"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -265,7 +303,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79967650379955446"/>
+        <fgColor theme="9" tint="0.79943235572374649"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -471,7 +509,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -523,7 +561,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -849,10 +890,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:J45"/>
+  <dimension ref="B2:J46"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K39" sqref="K39"/>
+    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -868,21 +909,21 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" s="2" customFormat="1" ht="40.049999999999997" customHeight="1">
-      <c r="B2" s="18" t="str">
-        <f>"2019年"&amp;D44&amp;"月"&amp;C45&amp;"日，日发电量"&amp;TEXT(I2,"0")&amp;"万千瓦时，其中风电"&amp;TEXT(H2,"0")&amp;"万kWh，光伏"&amp;TEXT(H3,"0")&amp;"万kWh"</f>
-        <v>2019年6月2日，日发电量1929万千瓦时，其中风电1686万kWh，光伏244万kWh</v>
-      </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="20"/>
+      <c r="B2" s="19" t="str">
+        <f>"2019年"&amp;D45&amp;"月"&amp;C46&amp;"日，日发电量"&amp;TEXT(I2,"0")&amp;"万千瓦时，其中风电"&amp;TEXT(H2,"0")&amp;"万kWh，光伏"&amp;TEXT(H3,"0")&amp;"万kWh"</f>
+        <v>2019年7月2日，日发电量857万千瓦时，其中风电682万kWh，光伏175万kWh</v>
+      </c>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="21"/>
       <c r="H2" s="2">
         <f>SUM(D4:D22)</f>
-        <v>1685.5598105217498</v>
+        <v>682.01322219848305</v>
       </c>
       <c r="I2" s="2">
         <f>SUM(H2:H3)</f>
-        <v>1929.0730209054987</v>
+        <v>856.77670634269964</v>
       </c>
     </row>
     <row r="3" spans="2:10" ht="17.399999999999999">
@@ -895,13 +936,13 @@
       <c r="D3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="22"/>
+      <c r="F3" s="23"/>
       <c r="H3" s="2">
-        <f>SUM(D23:D31)</f>
-        <v>243.5132103837488</v>
+        <f>SUM(D23:D32)</f>
+        <v>174.76348414421662</v>
       </c>
       <c r="I3" s="2"/>
     </row>
@@ -913,23 +954,23 @@
         <v>4</v>
       </c>
       <c r="D4" s="9">
-        <f t="shared" ref="D4:D31" si="0">I4</f>
-        <v>90.515000000000001</v>
+        <f t="shared" ref="D4:D32" si="0">I4</f>
+        <v>32.722000000000001</v>
       </c>
       <c r="E4" s="10">
-        <f t="shared" ref="E4:E31" si="1">J4</f>
-        <v>8.9499999999999993</v>
+        <f t="shared" ref="E4:E32" si="1">J4</f>
+        <v>5.73</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>5</v>
       </c>
       <c r="I4" s="1">
         <f>Sheet2!A1</f>
-        <v>90.515000000000001</v>
+        <v>32.722000000000001</v>
       </c>
       <c r="J4" s="1">
         <f>Sheet2!B1</f>
-        <v>8.9499999999999993</v>
+        <v>5.73</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="17.399999999999999">
@@ -941,22 +982,22 @@
       </c>
       <c r="D5" s="9">
         <f t="shared" si="0"/>
-        <v>56.5</v>
+        <v>26.05</v>
       </c>
       <c r="E5" s="10">
         <f t="shared" si="1"/>
-        <v>8.5</v>
+        <v>5.83</v>
       </c>
       <c r="F5" s="11" t="s">
         <v>5</v>
       </c>
       <c r="I5" s="1">
         <f>Sheet2!A2</f>
-        <v>56.5</v>
+        <v>26.05</v>
       </c>
       <c r="J5" s="1">
         <f>Sheet2!B2</f>
-        <v>8.5</v>
+        <v>5.83</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="17.399999999999999">
@@ -968,22 +1009,22 @@
       </c>
       <c r="D6" s="9">
         <f t="shared" si="0"/>
-        <v>152.1953</v>
+        <v>57.575000000000003</v>
       </c>
       <c r="E6" s="10">
         <f t="shared" si="1"/>
-        <v>9.16</v>
+        <v>4.79</v>
       </c>
       <c r="F6" s="11" t="s">
         <v>5</v>
       </c>
       <c r="I6" s="1">
         <f>Sheet2!A3</f>
-        <v>152.1953</v>
+        <v>57.575000000000003</v>
       </c>
       <c r="J6" s="1">
         <f>Sheet2!B3</f>
-        <v>9.16</v>
+        <v>4.79</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="17.399999999999999">
@@ -995,22 +1036,22 @@
       </c>
       <c r="D7" s="9">
         <f t="shared" si="0"/>
-        <v>31.382000000000001</v>
+        <v>26.32</v>
       </c>
       <c r="E7" s="10">
         <f t="shared" si="1"/>
-        <v>6.05</v>
+        <v>5.73</v>
       </c>
       <c r="F7" s="11" t="s">
         <v>5</v>
       </c>
       <c r="I7" s="1">
         <f>Sheet2!A4</f>
-        <v>31.382000000000001</v>
+        <v>26.32</v>
       </c>
       <c r="J7" s="1">
         <f>Sheet2!B4</f>
-        <v>6.05</v>
+        <v>5.73</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="17.399999999999999">
@@ -1022,22 +1063,22 @@
       </c>
       <c r="D8" s="9">
         <f t="shared" si="0"/>
-        <v>40.985999999999997</v>
+        <v>24.1</v>
       </c>
       <c r="E8" s="10">
         <f t="shared" si="1"/>
-        <v>7.43</v>
+        <v>5.25</v>
       </c>
       <c r="F8" s="11" t="s">
         <v>5</v>
       </c>
       <c r="I8" s="1">
         <f>Sheet2!A5</f>
-        <v>40.985999999999997</v>
+        <v>24.1</v>
       </c>
       <c r="J8" s="1">
         <f>Sheet2!B5</f>
-        <v>7.43</v>
+        <v>5.25</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="17.399999999999999">
@@ -1049,22 +1090,22 @@
       </c>
       <c r="D9" s="9">
         <f t="shared" si="0"/>
-        <v>91.082070047057798</v>
+        <v>124.00460299196401</v>
       </c>
       <c r="E9" s="10">
         <f t="shared" si="1"/>
-        <v>4.6754166666666697</v>
+        <v>4.9083333333333297</v>
       </c>
       <c r="F9" s="11" t="s">
         <v>5</v>
       </c>
       <c r="I9" s="1">
         <f>Sheet2!A6</f>
-        <v>91.082070047057798</v>
+        <v>124.00460299196401</v>
       </c>
       <c r="J9" s="1">
         <f>Sheet2!B6</f>
-        <v>4.6754166666666697</v>
+        <v>4.9083333333333297</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="17.399999999999999">
@@ -1076,22 +1117,22 @@
       </c>
       <c r="D10" s="9">
         <f t="shared" si="0"/>
-        <v>42.224545264483901</v>
+        <v>67.393633785060103</v>
       </c>
       <c r="E10" s="10">
         <f t="shared" si="1"/>
-        <v>5.2562499999999996</v>
+        <v>6.5962500000000004</v>
       </c>
       <c r="F10" s="11" t="s">
         <v>5</v>
       </c>
       <c r="I10" s="1">
         <f>Sheet2!A7</f>
-        <v>42.224545264483901</v>
+        <v>67.393633785060103</v>
       </c>
       <c r="J10" s="1">
         <f>Sheet2!B7</f>
-        <v>5.2562499999999996</v>
+        <v>6.5962500000000004</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="17.399999999999999">
@@ -1103,22 +1144,22 @@
       </c>
       <c r="D11" s="9">
         <f t="shared" si="0"/>
-        <v>62.120895210208197</v>
+        <v>62.9836854214591</v>
       </c>
       <c r="E11" s="10">
         <f t="shared" si="1"/>
-        <v>6.1483333333333299</v>
+        <v>5.335</v>
       </c>
       <c r="F11" s="11" t="s">
         <v>5</v>
       </c>
       <c r="I11" s="1">
         <f>Sheet2!A8</f>
-        <v>62.120895210208197</v>
+        <v>62.9836854214591</v>
       </c>
       <c r="J11" s="1">
         <f>Sheet2!B8</f>
-        <v>6.1483333333333299</v>
+        <v>5.335</v>
       </c>
     </row>
     <row r="12" spans="2:10" ht="17.399999999999999">
@@ -1130,22 +1171,22 @@
       </c>
       <c r="D12" s="9">
         <f t="shared" si="0"/>
-        <v>77.414599999999993</v>
+        <v>23.862400000000001</v>
       </c>
       <c r="E12" s="10">
         <f t="shared" si="1"/>
-        <v>6.44</v>
+        <v>4.4400000000000004</v>
       </c>
       <c r="F12" s="11" t="s">
         <v>5</v>
       </c>
       <c r="I12" s="1">
         <f>Sheet2!A9</f>
-        <v>77.414599999999993</v>
+        <v>23.862400000000001</v>
       </c>
       <c r="J12" s="1">
         <f>Sheet2!B9</f>
-        <v>6.44</v>
+        <v>4.4400000000000004</v>
       </c>
     </row>
     <row r="13" spans="2:10" ht="17.399999999999999">
@@ -1157,22 +1198,22 @@
       </c>
       <c r="D13" s="9">
         <f t="shared" si="0"/>
-        <v>60.809199999999997</v>
+        <v>15.315899999999999</v>
       </c>
       <c r="E13" s="10">
         <f t="shared" si="1"/>
-        <v>5.36</v>
+        <v>3.58</v>
       </c>
       <c r="F13" s="11" t="s">
         <v>5</v>
       </c>
       <c r="I13" s="1">
         <f>Sheet2!A10</f>
-        <v>60.809199999999997</v>
+        <v>15.315899999999999</v>
       </c>
       <c r="J13" s="1">
         <f>Sheet2!B10</f>
-        <v>5.36</v>
+        <v>3.58</v>
       </c>
     </row>
     <row r="14" spans="2:10" ht="17.399999999999999">
@@ -1184,22 +1225,22 @@
       </c>
       <c r="D14" s="9">
         <f t="shared" si="0"/>
-        <v>182.91069999999999</v>
+        <v>32.324599999999997</v>
       </c>
       <c r="E14" s="10">
         <f t="shared" si="1"/>
-        <v>5.46</v>
+        <v>3.01</v>
       </c>
       <c r="F14" s="11" t="s">
         <v>5</v>
       </c>
       <c r="I14" s="1">
         <f>Sheet2!A11</f>
-        <v>182.91069999999999</v>
+        <v>32.324599999999997</v>
       </c>
       <c r="J14" s="1">
         <f>Sheet2!B11</f>
-        <v>5.46</v>
+        <v>3.01</v>
       </c>
     </row>
     <row r="15" spans="2:10" ht="17.399999999999999">
@@ -1211,22 +1252,22 @@
       </c>
       <c r="D15" s="9">
         <f t="shared" si="0"/>
-        <v>116.66579999999999</v>
+        <v>22.652000000000001</v>
       </c>
       <c r="E15" s="10">
         <f t="shared" si="1"/>
-        <v>11.33</v>
+        <v>4.5425000000000004</v>
       </c>
       <c r="F15" s="11" t="s">
         <v>5</v>
       </c>
       <c r="I15" s="1">
         <f>Sheet2!A12</f>
-        <v>116.66579999999999</v>
+        <v>22.652000000000001</v>
       </c>
       <c r="J15" s="1">
         <f>Sheet2!B12</f>
-        <v>11.33</v>
+        <v>4.5425000000000004</v>
       </c>
     </row>
     <row r="16" spans="2:10" ht="17.399999999999999">
@@ -1238,22 +1279,22 @@
       </c>
       <c r="D16" s="9">
         <f t="shared" si="0"/>
-        <v>56.263800000000003</v>
+        <v>33.885199999999998</v>
       </c>
       <c r="E16" s="10">
         <f t="shared" si="1"/>
-        <v>13.102499999999999</v>
+        <v>7.1074999999999999</v>
       </c>
       <c r="F16" s="11" t="s">
         <v>5</v>
       </c>
       <c r="I16" s="1">
         <f>Sheet2!A13</f>
-        <v>56.263800000000003</v>
+        <v>33.885199999999998</v>
       </c>
       <c r="J16" s="1">
         <f>Sheet2!B13</f>
-        <v>13.102499999999999</v>
+        <v>7.1074999999999999</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="17.399999999999999">
@@ -1265,22 +1306,22 @@
       </c>
       <c r="D17" s="9">
         <f t="shared" si="0"/>
-        <v>118.29589999999999</v>
+        <v>63.973200000000006</v>
       </c>
       <c r="E17" s="10">
         <f t="shared" si="1"/>
-        <v>15.416666666666666</v>
+        <v>7.5133333333333319</v>
       </c>
       <c r="F17" s="11" t="s">
         <v>5</v>
       </c>
       <c r="I17" s="1">
         <f>Sheet2!A14</f>
-        <v>118.29589999999999</v>
+        <v>63.973200000000006</v>
       </c>
       <c r="J17" s="1">
         <f>Sheet2!B14</f>
-        <v>15.416666666666666</v>
+        <v>7.5133333333333319</v>
       </c>
     </row>
     <row r="18" spans="2:10" ht="17.399999999999999">
@@ -1292,22 +1333,22 @@
       </c>
       <c r="D18" s="9">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>14.92</v>
       </c>
       <c r="E18" s="10">
         <f t="shared" si="1"/>
-        <v>10.220000000000001</v>
+        <v>4.3</v>
       </c>
       <c r="F18" s="11" t="s">
         <v>5</v>
       </c>
       <c r="I18" s="1">
         <f>Sheet2!A15</f>
-        <v>100</v>
+        <v>14.92</v>
       </c>
       <c r="J18" s="1">
         <f>Sheet2!B15</f>
-        <v>10.220000000000001</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="19" spans="2:10" ht="17.399999999999999">
@@ -1319,22 +1360,22 @@
       </c>
       <c r="D19" s="9">
         <f t="shared" si="0"/>
-        <v>124.881</v>
+        <v>28.675000000000001</v>
       </c>
       <c r="E19" s="10">
         <f t="shared" si="1"/>
-        <v>9.3699999999999992</v>
+        <v>4.29</v>
       </c>
       <c r="F19" s="11" t="s">
         <v>5</v>
       </c>
       <c r="I19" s="1">
         <f>Sheet2!A16</f>
-        <v>124.881</v>
+        <v>28.675000000000001</v>
       </c>
       <c r="J19" s="1">
         <f>Sheet2!B16</f>
-        <v>9.3699999999999992</v>
+        <v>4.29</v>
       </c>
     </row>
     <row r="20" spans="2:10" ht="17.399999999999999">
@@ -1346,22 +1387,22 @@
       </c>
       <c r="D20" s="9">
         <f t="shared" si="0"/>
-        <v>74.436000000000007</v>
+        <v>16.356000000000002</v>
       </c>
       <c r="E20" s="10">
         <f t="shared" si="1"/>
-        <v>9.26</v>
+        <v>4.25</v>
       </c>
       <c r="F20" s="11" t="s">
         <v>5</v>
       </c>
       <c r="I20" s="1">
         <f>Sheet2!A17</f>
-        <v>74.436000000000007</v>
+        <v>16.356000000000002</v>
       </c>
       <c r="J20" s="1">
         <f>Sheet2!B17</f>
-        <v>9.26</v>
+        <v>4.25</v>
       </c>
     </row>
     <row r="21" spans="2:10" ht="17.399999999999999">
@@ -1373,22 +1414,22 @@
       </c>
       <c r="D21" s="9">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>8.9</v>
       </c>
       <c r="E21" s="10">
         <f t="shared" si="1"/>
-        <v>7.31</v>
+        <v>3.35</v>
       </c>
       <c r="F21" s="11" t="s">
         <v>5</v>
       </c>
       <c r="I21" s="1">
         <f>Sheet2!A18</f>
-        <v>35</v>
+        <v>8.9</v>
       </c>
       <c r="J21" s="1">
         <f>Sheet2!B18</f>
-        <v>7.31</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="22" spans="2:10" ht="17.399999999999999">
@@ -1400,22 +1441,22 @@
       </c>
       <c r="D22" s="9">
         <f t="shared" si="0"/>
-        <v>171.87700000000001</v>
+        <v>0</v>
       </c>
       <c r="E22" s="10">
         <f t="shared" si="1"/>
-        <v>6.5</v>
+        <v>4.7699999999999996</v>
       </c>
       <c r="F22" s="11" t="s">
         <v>5</v>
       </c>
       <c r="I22" s="1">
         <f>Sheet2!A19</f>
-        <v>171.87700000000001</v>
+        <v>0</v>
       </c>
       <c r="J22" s="1">
         <f>Sheet2!B19</f>
-        <v>6.5</v>
+        <v>4.7699999999999996</v>
       </c>
     </row>
     <row r="23" spans="2:10" ht="17.399999999999999">
@@ -1427,22 +1468,22 @@
       </c>
       <c r="D23" s="14">
         <f t="shared" si="0"/>
-        <v>25.787810383748798</v>
+        <v>25.619584144216599</v>
       </c>
       <c r="E23" s="15">
         <f t="shared" si="1"/>
-        <v>24.956791407876299</v>
+        <v>24.844338733796</v>
       </c>
       <c r="F23" s="16" t="s">
         <v>25</v>
       </c>
       <c r="I23" s="1">
         <f>Sheet2!A20</f>
-        <v>25.787810383748798</v>
+        <v>25.619584144216599</v>
       </c>
       <c r="J23" s="1">
         <f>Sheet2!B20</f>
-        <v>24.956791407876299</v>
+        <v>24.844338733796</v>
       </c>
     </row>
     <row r="24" spans="2:10" ht="17.399999999999999">
@@ -1454,22 +1495,22 @@
       </c>
       <c r="D24" s="14">
         <f t="shared" si="0"/>
-        <v>8.3914000000000009</v>
+        <v>8.0986999999999991</v>
       </c>
       <c r="E24" s="15">
         <f t="shared" si="1"/>
-        <v>16.55</v>
+        <v>14.71</v>
       </c>
       <c r="F24" s="16" t="s">
         <v>25</v>
       </c>
       <c r="I24" s="1">
         <f>Sheet2!A21</f>
-        <v>8.3914000000000009</v>
+        <v>8.0986999999999991</v>
       </c>
       <c r="J24" s="1">
         <f>Sheet2!B21</f>
-        <v>16.55</v>
+        <v>14.71</v>
       </c>
     </row>
     <row r="25" spans="2:10" ht="17.399999999999999">
@@ -1481,22 +1522,22 @@
       </c>
       <c r="D25" s="14">
         <f t="shared" si="0"/>
-        <v>11.0852</v>
+        <v>6.0244</v>
       </c>
       <c r="E25" s="15">
         <f t="shared" si="1"/>
-        <v>23.509599999999999</v>
+        <v>11.6014</v>
       </c>
       <c r="F25" s="16" t="s">
         <v>25</v>
       </c>
       <c r="I25" s="1">
         <f>Sheet2!A22</f>
-        <v>11.0852</v>
+        <v>6.0244</v>
       </c>
       <c r="J25" s="1">
         <f>Sheet2!B22</f>
-        <v>23.509599999999999</v>
+        <v>11.6014</v>
       </c>
     </row>
     <row r="26" spans="2:10" ht="17.399999999999999">
@@ -1508,22 +1549,22 @@
       </c>
       <c r="D26" s="14">
         <f t="shared" si="0"/>
-        <v>12.1785</v>
+        <v>6.3051000000000004</v>
       </c>
       <c r="E26" s="15">
         <f t="shared" si="1"/>
-        <v>29.764800000000001</v>
+        <v>12.9939</v>
       </c>
       <c r="F26" s="16" t="s">
         <v>25</v>
       </c>
       <c r="I26" s="1">
         <f>Sheet2!A23</f>
-        <v>12.1785</v>
+        <v>6.3051000000000004</v>
       </c>
       <c r="J26" s="1">
         <f>Sheet2!B23</f>
-        <v>29.764800000000001</v>
+        <v>12.9939</v>
       </c>
     </row>
     <row r="27" spans="2:10" ht="17.399999999999999">
@@ -1535,22 +1576,22 @@
       </c>
       <c r="D27" s="14">
         <f t="shared" si="0"/>
-        <v>127.3845</v>
+        <v>70.654499999999999</v>
       </c>
       <c r="E27" s="15">
         <f t="shared" si="1"/>
-        <v>30.236000000000001</v>
+        <v>14.489000000000001</v>
       </c>
       <c r="F27" s="16" t="s">
         <v>25</v>
       </c>
       <c r="I27" s="1">
         <f>Sheet2!A24</f>
-        <v>127.3845</v>
+        <v>70.654499999999999</v>
       </c>
       <c r="J27" s="1">
         <f>Sheet2!B24</f>
-        <v>30.236000000000001</v>
+        <v>14.489000000000001</v>
       </c>
     </row>
     <row r="28" spans="2:10" ht="17.399999999999999">
@@ -1562,22 +1603,22 @@
       </c>
       <c r="D28" s="14">
         <f t="shared" si="0"/>
-        <v>11.6798</v>
+        <v>11.286199999999999</v>
       </c>
       <c r="E28" s="15">
         <f t="shared" si="1"/>
-        <v>25.646999999999998</v>
+        <v>25.503</v>
       </c>
       <c r="F28" s="16" t="s">
         <v>25</v>
       </c>
       <c r="I28" s="1">
         <f>Sheet2!A25</f>
-        <v>11.6798</v>
+        <v>11.286199999999999</v>
       </c>
       <c r="J28" s="1">
         <f>Sheet2!B25</f>
-        <v>25.646999999999998</v>
+        <v>25.503</v>
       </c>
     </row>
     <row r="29" spans="2:10" ht="17.399999999999999">
@@ -1589,22 +1630,22 @@
       </c>
       <c r="D29" s="14">
         <f t="shared" si="0"/>
-        <v>6.024</v>
+        <v>5.8079999999999998</v>
       </c>
       <c r="E29" s="15">
         <f t="shared" si="1"/>
-        <v>25.56</v>
+        <v>24.67</v>
       </c>
       <c r="F29" s="16" t="s">
         <v>25</v>
       </c>
       <c r="I29" s="1">
         <f>Sheet2!A26</f>
-        <v>6.024</v>
+        <v>5.8079999999999998</v>
       </c>
       <c r="J29" s="1">
         <f>Sheet2!B26</f>
-        <v>25.56</v>
+        <v>24.67</v>
       </c>
     </row>
     <row r="30" spans="2:10" ht="17.399999999999999">
@@ -1616,22 +1657,22 @@
       </c>
       <c r="D30" s="14">
         <f t="shared" si="0"/>
-        <v>26.745999999999999</v>
+        <v>28.74</v>
       </c>
       <c r="E30" s="15">
         <f t="shared" si="1"/>
-        <v>24.369</v>
+        <v>27.123000000000001</v>
       </c>
       <c r="F30" s="16" t="s">
         <v>25</v>
       </c>
       <c r="I30" s="1">
         <f>Sheet2!A27</f>
-        <v>26.745999999999999</v>
+        <v>28.74</v>
       </c>
       <c r="J30" s="1">
         <f>Sheet2!B27</f>
-        <v>24.369</v>
+        <v>27.123000000000001</v>
       </c>
     </row>
     <row r="31" spans="2:10" ht="17.399999999999999">
@@ -1643,174 +1684,201 @@
       </c>
       <c r="D31" s="14">
         <f t="shared" si="0"/>
-        <v>14.236000000000001</v>
+        <v>7.8810000000000002</v>
       </c>
       <c r="E31" s="15">
         <f t="shared" si="1"/>
-        <v>22.24</v>
-      </c>
-      <c r="F31" s="16" t="s">
-        <v>25</v>
+        <v>12.51</v>
+      </c>
+      <c r="F31" s="17" t="s">
+        <v>34</v>
       </c>
       <c r="I31" s="1">
         <f>Sheet2!A28</f>
-        <v>14.236000000000001</v>
+        <v>7.8810000000000002</v>
       </c>
       <c r="J31" s="1">
         <f>Sheet2!B28</f>
-        <v>22.24</v>
-      </c>
-    </row>
-    <row r="32" spans="2:10">
-      <c r="B32" s="23" t="str">
-        <f>"  本月风电累计发电量"&amp;TEXT(C40,"0")&amp;"万kWh；本年累计"&amp;TEXT(D40,"0.00")&amp;"亿kWh。本月光伏累计发电量"&amp;TEXT(C41,"0")&amp;"万kWh；本年累计"&amp;TEXT(D41,"0.00")&amp;"亿kWh。产业合计年累计发电量"&amp;TEXT(C42,"0.00")&amp;"亿kWh。截至目前，2019年日均发电量"&amp;TEXT(D42,"0")&amp;"万kWh。"</f>
-        <v xml:space="preserve">  本月风电累计发电量3094万kWh；本年累计18.78亿kWh。本月光伏累计发电量445万kWh；本年累计2.72亿kWh。产业合计年累计发电量21.50亿kWh。截至目前，2019年日均发电量1405万kWh。</v>
-      </c>
-      <c r="C32" s="24"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="27"/>
+        <v>12.51</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" ht="17.399999999999999">
+      <c r="B32" s="12">
+        <v>29</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32" s="14">
+        <f t="shared" si="0"/>
+        <v>4.3460000000000001</v>
+      </c>
+      <c r="E32" s="15">
+        <f t="shared" si="1"/>
+        <v>9.85</v>
+      </c>
+      <c r="F32" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="I32" s="1">
+        <f>Sheet2!A29</f>
+        <v>4.3460000000000001</v>
+      </c>
+      <c r="J32" s="1">
+        <f>Sheet2!B29</f>
+        <v>9.85</v>
+      </c>
     </row>
     <row r="33" spans="2:7">
-      <c r="B33" s="23"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="27"/>
+      <c r="B33" s="24" t="str">
+        <f>"  本月风电累计发电量"&amp;TEXT(C41,"0")&amp;"万kWh；本年累计"&amp;TEXT(D41,"0.00")&amp;"亿kWh。本月光伏累计发电量"&amp;TEXT(C42,"0")&amp;"万kWh；本年累计"&amp;TEXT(D42,"0.00")&amp;"亿kWh。产业合计年累计发电量"&amp;TEXT(C43,"0.00")&amp;"亿kWh。截至目前，2019年日均发电量"&amp;TEXT(D43,"0")&amp;"万kWh。"</f>
+        <v xml:space="preserve">  本月风电累计发电量1417万kWh；本年累计22.59亿kWh。本月光伏累计发电量341万kWh；本年累计3.25亿kWh。产业合计年累计发电量25.85亿kWh。截至目前，2019年日均发电量1412万kWh。</v>
+      </c>
+      <c r="C33" s="25"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="28"/>
     </row>
     <row r="34" spans="2:7">
-      <c r="B34" s="23"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="27"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="28"/>
     </row>
     <row r="35" spans="2:7">
-      <c r="B35" s="23"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="27"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="28"/>
     </row>
     <row r="36" spans="2:7">
-      <c r="B36" s="29"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="33"/>
-    </row>
-    <row r="39" spans="2:7">
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-    </row>
-    <row r="40" spans="2:7" ht="15.6">
-      <c r="C40" s="17">
+      <c r="B36" s="24"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="28"/>
+    </row>
+    <row r="37" spans="2:7">
+      <c r="B37" s="30"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="34"/>
+    </row>
+    <row r="40" spans="2:7">
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+    </row>
+    <row r="41" spans="2:7" ht="15.6">
+      <c r="C41" s="18">
         <f>Sheet3!A1</f>
-        <v>3094.3627586963698</v>
-      </c>
-      <c r="D40" s="1">
+        <v>1417.1161222565097</v>
+      </c>
+      <c r="D41" s="1">
         <f>Sheet3!B1</f>
-        <v>18.784216825372976</v>
-      </c>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7" ht="15.6">
-      <c r="C41" s="17">
-        <f>Sheet3!A2</f>
-        <v>444.63905009641979</v>
-      </c>
-      <c r="D41" s="1">
-        <f>Sheet3!B2</f>
-        <v>2.7164014885981449</v>
+        <v>22.592744235725252</v>
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" spans="2:7" ht="15.6">
-      <c r="C42" s="17">
-        <f>Sheet3!A3</f>
-        <v>21.50061831397112</v>
+      <c r="C42" s="18">
+        <f>Sheet3!A2</f>
+        <v>340.86875010079109</v>
       </c>
       <c r="D42" s="1">
-        <f>Sheet3!B3</f>
-        <v>1405.2691708477857</v>
+        <f>Sheet3!B2</f>
+        <v>3.2524602062101291</v>
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43" spans="2:7" ht="15.6">
-      <c r="C43" s="17">
-        <f>Sheet3!A4</f>
-        <v>1929.0730209054987</v>
+      <c r="C43" s="18">
+        <f>Sheet3!A3</f>
+        <v>25.84520444193538</v>
       </c>
       <c r="D43" s="1">
-        <f>Sheet3!B4</f>
-        <v>1685.5598105217498</v>
+        <f>Sheet3!B3</f>
+        <v>1412.306253657671</v>
       </c>
       <c r="E43" s="1"/>
       <c r="F43" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="2:7" ht="15.6">
-      <c r="C44" s="17">
-        <f>Sheet3!A5</f>
-        <v>243.5132103837488</v>
+      <c r="C44" s="18">
+        <f>Sheet3!A4</f>
+        <v>856.77670634269964</v>
       </c>
       <c r="D44" s="1">
-        <v>6</v>
+        <f>Sheet3!B4</f>
+        <v>682.01322219848305</v>
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="45" spans="2:7" ht="15.6">
-      <c r="C45" s="17">
+      <c r="C45" s="18">
+        <f>Sheet3!A5</f>
+        <v>174.76348414421662</v>
+      </c>
+      <c r="D45" s="1">
+        <v>7</v>
+      </c>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" ht="15.6">
+      <c r="C46" s="18">
         <f>Sheet3!A6</f>
         <v>2</v>
       </c>
-      <c r="D45" s="1">
+      <c r="D46" s="1">
         <f>Sheet3!B6</f>
-        <v>153</v>
-      </c>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>45</v>
+        <v>183</v>
+      </c>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="E3:F3"/>
-    <mergeCell ref="B32:F36"/>
+    <mergeCell ref="B33:F37"/>
   </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -1818,240 +1886,248 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B28"/>
+      <selection sqref="A1:B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1">
-        <v>90.515000000000001</v>
+        <v>32.722000000000001</v>
       </c>
       <c r="B1">
-        <v>8.9499999999999993</v>
+        <v>5.73</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>56.5</v>
+        <v>26.05</v>
       </c>
       <c r="B2">
-        <v>8.5</v>
+        <v>5.83</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>152.1953</v>
+        <v>57.575000000000003</v>
       </c>
       <c r="B3">
-        <v>9.16</v>
+        <v>4.79</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>31.382000000000001</v>
+        <v>26.32</v>
       </c>
       <c r="B4">
-        <v>6.05</v>
+        <v>5.73</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>40.985999999999997</v>
+        <v>24.1</v>
       </c>
       <c r="B5">
-        <v>7.43</v>
+        <v>5.25</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>91.082070047057798</v>
+        <v>124.00460299196401</v>
       </c>
       <c r="B6">
-        <v>4.6754166666666697</v>
+        <v>4.9083333333333297</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>42.224545264483901</v>
+        <v>67.393633785060103</v>
       </c>
       <c r="B7">
-        <v>5.2562499999999996</v>
+        <v>6.5962500000000004</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>62.120895210208197</v>
+        <v>62.9836854214591</v>
       </c>
       <c r="B8">
-        <v>6.1483333333333299</v>
+        <v>5.335</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>77.414599999999993</v>
+        <v>23.862400000000001</v>
       </c>
       <c r="B9">
-        <v>6.44</v>
+        <v>4.4400000000000004</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>60.809199999999997</v>
+        <v>15.315899999999999</v>
       </c>
       <c r="B10">
-        <v>5.36</v>
+        <v>3.58</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>182.91069999999999</v>
+        <v>32.324599999999997</v>
       </c>
       <c r="B11">
-        <v>5.46</v>
+        <v>3.01</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>116.66579999999999</v>
+        <v>22.652000000000001</v>
       </c>
       <c r="B12">
-        <v>11.33</v>
+        <v>4.5425000000000004</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>56.263800000000003</v>
+        <v>33.885199999999998</v>
       </c>
       <c r="B13">
-        <v>13.102499999999999</v>
+        <v>7.1074999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>118.29589999999999</v>
+        <v>63.973200000000006</v>
       </c>
       <c r="B14">
-        <v>15.416666666666666</v>
+        <v>7.5133333333333319</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>100</v>
+        <v>14.92</v>
       </c>
       <c r="B15">
-        <v>10.220000000000001</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>124.881</v>
+        <v>28.675000000000001</v>
       </c>
       <c r="B16">
-        <v>9.3699999999999992</v>
+        <v>4.29</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>74.436000000000007</v>
+        <v>16.356000000000002</v>
       </c>
       <c r="B17">
-        <v>9.26</v>
+        <v>4.25</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>35</v>
+        <v>8.9</v>
       </c>
       <c r="B18">
-        <v>7.31</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>171.87700000000001</v>
+        <v>0</v>
       </c>
       <c r="B19">
-        <v>6.5</v>
+        <v>4.7699999999999996</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>25.787810383748798</v>
+        <v>25.619584144216599</v>
       </c>
       <c r="B20">
-        <v>24.956791407876299</v>
+        <v>24.844338733796</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>8.3914000000000009</v>
+        <v>8.0986999999999991</v>
       </c>
       <c r="B21">
-        <v>16.55</v>
+        <v>14.71</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>11.0852</v>
+        <v>6.0244</v>
       </c>
       <c r="B22">
-        <v>23.509599999999999</v>
+        <v>11.6014</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>12.1785</v>
+        <v>6.3051000000000004</v>
       </c>
       <c r="B23">
-        <v>29.764800000000001</v>
+        <v>12.9939</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>127.3845</v>
+        <v>70.654499999999999</v>
       </c>
       <c r="B24">
-        <v>30.236000000000001</v>
+        <v>14.489000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>11.6798</v>
+        <v>11.286199999999999</v>
       </c>
       <c r="B25">
-        <v>25.646999999999998</v>
+        <v>25.503</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>6.024</v>
+        <v>5.8079999999999998</v>
       </c>
       <c r="B26">
-        <v>25.56</v>
+        <v>24.67</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>26.745999999999999</v>
+        <v>28.74</v>
       </c>
       <c r="B27">
-        <v>24.369</v>
+        <v>27.123000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>14.236000000000001</v>
+        <v>7.8810000000000002</v>
       </c>
       <c r="B28">
-        <v>22.24</v>
+        <v>12.51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29">
+        <v>4.3460000000000001</v>
+      </c>
+      <c r="B29">
+        <v>9.85</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -2069,42 +2145,42 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1">
-        <v>3094.3627586963698</v>
+        <v>1417.1161222565097</v>
       </c>
       <c r="B1" s="1">
-        <v>18.784216825372976</v>
+        <v>22.592744235725252</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1">
-        <v>444.63905009641979</v>
+        <v>340.86875010079109</v>
       </c>
       <c r="B2" s="1">
-        <v>2.7164014885981449</v>
+        <v>3.2524602062101291</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1">
-        <v>21.50061831397112</v>
+        <v>25.84520444193538</v>
       </c>
       <c r="B3" s="1">
-        <v>1405.2691708477857</v>
+        <v>1412.306253657671</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1">
-        <v>1929.0730209054987</v>
+        <v>856.77670634269964</v>
       </c>
       <c r="B4" s="1">
-        <v>1685.5598105217498</v>
+        <v>682.01322219848305</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1">
-        <v>243.5132103837488</v>
+        <v>174.76348414421662</v>
       </c>
       <c r="B5" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2112,11 +2188,11 @@
         <v>2</v>
       </c>
       <c r="B6" s="1">
-        <v>153</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/日报.xlsx
+++ b/日报.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\aa0011\ribao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39164DD2-E6BA-41EB-A64A-CFDB86B8A51C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66F38977-1116-460C-A0C5-8C2DED9BEDCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="360" windowWidth="9840" windowHeight="4896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1500" yWindow="1500" windowWidth="15375" windowHeight="7890" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -896,22 +897,22 @@
       <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="2" width="8.88671875" style="1"/>
-    <col min="3" max="3" width="12.21875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="28.21875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.77734375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="17.109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="1"/>
-    <col min="8" max="11" width="12.88671875" style="1"/>
-    <col min="12" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="2" width="8.875" style="1"/>
+    <col min="3" max="3" width="12.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="28.25" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.75" style="3" customWidth="1"/>
+    <col min="6" max="6" width="17.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.875" style="1"/>
+    <col min="8" max="11" width="12.875" style="1"/>
+    <col min="12" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" s="2" customFormat="1" ht="40.049999999999997" customHeight="1">
+    <row r="2" spans="2:10" s="2" customFormat="1" ht="40.15" customHeight="1">
       <c r="B2" s="19" t="str">
         <f>"2019年"&amp;D45&amp;"月"&amp;C46&amp;"日，日发电量"&amp;TEXT(I2,"0")&amp;"万千瓦时，其中风电"&amp;TEXT(H2,"0")&amp;"万kWh，光伏"&amp;TEXT(H3,"0")&amp;"万kWh"</f>
-        <v>2019年7月2日，日发电量857万千瓦时，其中风电682万kWh，光伏175万kWh</v>
+        <v>2019年7月15日，日发电量858万千瓦时，其中风电656万kWh，光伏202万kWh</v>
       </c>
       <c r="C2" s="20"/>
       <c r="D2" s="20"/>
@@ -919,14 +920,14 @@
       <c r="F2" s="21"/>
       <c r="H2" s="2">
         <f>SUM(D4:D22)</f>
-        <v>682.01322219848305</v>
+        <v>655.87675323010831</v>
       </c>
       <c r="I2" s="2">
         <f>SUM(H2:H3)</f>
-        <v>856.77670634269964</v>
-      </c>
-    </row>
-    <row r="3" spans="2:10" ht="17.399999999999999">
+        <v>858.3149148304376</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" ht="18.75">
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
@@ -942,11 +943,11 @@
       <c r="F3" s="23"/>
       <c r="H3" s="2">
         <f>SUM(D23:D32)</f>
-        <v>174.76348414421662</v>
+        <v>202.43816160032929</v>
       </c>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="2:10" ht="17.399999999999999">
+    <row r="4" spans="2:10" ht="18.75">
       <c r="B4" s="7">
         <v>1</v>
       </c>
@@ -955,25 +956,25 @@
       </c>
       <c r="D4" s="9">
         <f t="shared" ref="D4:D32" si="0">I4</f>
-        <v>32.722000000000001</v>
+        <v>1.6930000000000001</v>
       </c>
       <c r="E4" s="10">
         <f t="shared" ref="E4:E32" si="1">J4</f>
-        <v>5.73</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>5</v>
       </c>
       <c r="I4" s="1">
         <f>Sheet2!A1</f>
-        <v>32.722000000000001</v>
+        <v>1.6930000000000001</v>
       </c>
       <c r="J4" s="1">
         <f>Sheet2!B1</f>
-        <v>5.73</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" ht="17.399999999999999">
+        <v>2.2200000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="18.75">
       <c r="B5" s="7">
         <v>2</v>
       </c>
@@ -982,25 +983,25 @@
       </c>
       <c r="D5" s="9">
         <f t="shared" si="0"/>
-        <v>26.05</v>
+        <v>2.8370000000000002</v>
       </c>
       <c r="E5" s="10">
         <f t="shared" si="1"/>
-        <v>5.83</v>
+        <v>2.31</v>
       </c>
       <c r="F5" s="11" t="s">
         <v>5</v>
       </c>
       <c r="I5" s="1">
         <f>Sheet2!A2</f>
-        <v>26.05</v>
+        <v>2.8370000000000002</v>
       </c>
       <c r="J5" s="1">
         <f>Sheet2!B2</f>
-        <v>5.83</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" ht="17.399999999999999">
+        <v>2.31</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" ht="18.75">
       <c r="B6" s="7">
         <v>3</v>
       </c>
@@ -1009,25 +1010,25 @@
       </c>
       <c r="D6" s="9">
         <f t="shared" si="0"/>
-        <v>57.575000000000003</v>
+        <v>3.2069999999999999</v>
       </c>
       <c r="E6" s="10">
         <f t="shared" si="1"/>
-        <v>4.79</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="F6" s="11" t="s">
         <v>5</v>
       </c>
       <c r="I6" s="1">
         <f>Sheet2!A3</f>
-        <v>57.575000000000003</v>
+        <v>3.2069999999999999</v>
       </c>
       <c r="J6" s="1">
         <f>Sheet2!B3</f>
-        <v>4.79</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" ht="17.399999999999999">
+        <v>2.4500000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="18.75">
       <c r="B7" s="7">
         <v>4</v>
       </c>
@@ -1036,25 +1037,25 @@
       </c>
       <c r="D7" s="9">
         <f t="shared" si="0"/>
-        <v>26.32</v>
+        <v>18.708200000000001</v>
       </c>
       <c r="E7" s="10">
         <f t="shared" si="1"/>
-        <v>5.73</v>
+        <v>4.7</v>
       </c>
       <c r="F7" s="11" t="s">
         <v>5</v>
       </c>
       <c r="I7" s="1">
         <f>Sheet2!A4</f>
-        <v>26.32</v>
+        <v>18.708200000000001</v>
       </c>
       <c r="J7" s="1">
         <f>Sheet2!B4</f>
-        <v>5.73</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" ht="17.399999999999999">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" ht="18.75">
       <c r="B8" s="7">
         <v>5</v>
       </c>
@@ -1063,25 +1064,25 @@
       </c>
       <c r="D8" s="9">
         <f t="shared" si="0"/>
-        <v>24.1</v>
+        <v>8.6210000000000004</v>
       </c>
       <c r="E8" s="10">
         <f t="shared" si="1"/>
-        <v>5.25</v>
+        <v>3.86</v>
       </c>
       <c r="F8" s="11" t="s">
         <v>5</v>
       </c>
       <c r="I8" s="1">
         <f>Sheet2!A5</f>
-        <v>24.1</v>
+        <v>8.6210000000000004</v>
       </c>
       <c r="J8" s="1">
         <f>Sheet2!B5</f>
-        <v>5.25</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" ht="17.399999999999999">
+        <v>3.86</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="18.75">
       <c r="B9" s="7">
         <v>6</v>
       </c>
@@ -1090,25 +1091,25 @@
       </c>
       <c r="D9" s="9">
         <f t="shared" si="0"/>
-        <v>124.00460299196401</v>
+        <v>16.440999999999999</v>
       </c>
       <c r="E9" s="10">
         <f t="shared" si="1"/>
-        <v>4.9083333333333297</v>
+        <v>3.82</v>
       </c>
       <c r="F9" s="11" t="s">
         <v>5</v>
       </c>
       <c r="I9" s="1">
         <f>Sheet2!A6</f>
-        <v>124.00460299196401</v>
+        <v>16.440999999999999</v>
       </c>
       <c r="J9" s="1">
         <f>Sheet2!B6</f>
-        <v>4.9083333333333297</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" ht="17.399999999999999">
+        <v>3.82</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" ht="18.75">
       <c r="B10" s="7">
         <v>7</v>
       </c>
@@ -1117,25 +1118,25 @@
       </c>
       <c r="D10" s="9">
         <f t="shared" si="0"/>
-        <v>67.393633785060103</v>
+        <v>31.7739403453714</v>
       </c>
       <c r="E10" s="10">
         <f t="shared" si="1"/>
-        <v>6.5962500000000004</v>
+        <v>2.4895833333333299</v>
       </c>
       <c r="F10" s="11" t="s">
         <v>5</v>
       </c>
       <c r="I10" s="1">
         <f>Sheet2!A7</f>
-        <v>67.393633785060103</v>
+        <v>31.7739403453714</v>
       </c>
       <c r="J10" s="1">
         <f>Sheet2!B7</f>
-        <v>6.5962500000000004</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" ht="17.399999999999999">
+        <v>2.4895833333333299</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" ht="18.75">
       <c r="B11" s="7">
         <v>8</v>
       </c>
@@ -1144,25 +1145,25 @@
       </c>
       <c r="D11" s="9">
         <f t="shared" si="0"/>
-        <v>62.9836854214591</v>
+        <v>35.352604589804898</v>
       </c>
       <c r="E11" s="10">
         <f t="shared" si="1"/>
-        <v>5.335</v>
+        <v>4.2379166666666697</v>
       </c>
       <c r="F11" s="11" t="s">
         <v>5</v>
       </c>
       <c r="I11" s="1">
         <f>Sheet2!A8</f>
-        <v>62.9836854214591</v>
+        <v>35.352604589804898</v>
       </c>
       <c r="J11" s="1">
         <f>Sheet2!B8</f>
-        <v>5.335</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" ht="17.399999999999999">
+        <v>4.2379166666666697</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" ht="18.75">
       <c r="B12" s="7">
         <v>9</v>
       </c>
@@ -1171,25 +1172,25 @@
       </c>
       <c r="D12" s="9">
         <f t="shared" si="0"/>
-        <v>23.862400000000001</v>
+        <v>9.5046082949320496</v>
       </c>
       <c r="E12" s="10">
         <f t="shared" si="1"/>
-        <v>4.4400000000000004</v>
+        <v>2.4550000000000001</v>
       </c>
       <c r="F12" s="11" t="s">
         <v>5</v>
       </c>
       <c r="I12" s="1">
         <f>Sheet2!A9</f>
-        <v>23.862400000000001</v>
+        <v>9.5046082949320496</v>
       </c>
       <c r="J12" s="1">
         <f>Sheet2!B9</f>
-        <v>4.4400000000000004</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" ht="17.399999999999999">
+        <v>2.4550000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" ht="18.75">
       <c r="B13" s="7">
         <v>10</v>
       </c>
@@ -1198,25 +1199,25 @@
       </c>
       <c r="D13" s="9">
         <f t="shared" si="0"/>
-        <v>15.315899999999999</v>
+        <v>65.784199999999998</v>
       </c>
       <c r="E13" s="10">
         <f t="shared" si="1"/>
-        <v>3.58</v>
+        <v>5.34</v>
       </c>
       <c r="F13" s="11" t="s">
         <v>5</v>
       </c>
       <c r="I13" s="1">
         <f>Sheet2!A10</f>
-        <v>15.315899999999999</v>
+        <v>65.784199999999998</v>
       </c>
       <c r="J13" s="1">
         <f>Sheet2!B10</f>
-        <v>3.58</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" ht="17.399999999999999">
+        <v>5.34</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" ht="18.75">
       <c r="B14" s="7">
         <v>11</v>
       </c>
@@ -1225,25 +1226,25 @@
       </c>
       <c r="D14" s="9">
         <f t="shared" si="0"/>
-        <v>32.324599999999997</v>
+        <v>78.440200000000004</v>
       </c>
       <c r="E14" s="10">
         <f t="shared" si="1"/>
-        <v>3.01</v>
+        <v>5.43</v>
       </c>
       <c r="F14" s="11" t="s">
         <v>5</v>
       </c>
       <c r="I14" s="1">
         <f>Sheet2!A11</f>
-        <v>32.324599999999997</v>
+        <v>78.440200000000004</v>
       </c>
       <c r="J14" s="1">
         <f>Sheet2!B11</f>
-        <v>3.01</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" ht="17.399999999999999">
+        <v>5.43</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" ht="18.75">
       <c r="B15" s="7">
         <v>12</v>
       </c>
@@ -1252,25 +1253,25 @@
       </c>
       <c r="D15" s="9">
         <f t="shared" si="0"/>
-        <v>22.652000000000001</v>
+        <v>295.87</v>
       </c>
       <c r="E15" s="10">
         <f t="shared" si="1"/>
-        <v>4.5425000000000004</v>
+        <v>6.57</v>
       </c>
       <c r="F15" s="11" t="s">
         <v>5</v>
       </c>
       <c r="I15" s="1">
         <f>Sheet2!A12</f>
-        <v>22.652000000000001</v>
+        <v>295.87</v>
       </c>
       <c r="J15" s="1">
         <f>Sheet2!B12</f>
-        <v>4.5425000000000004</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" ht="17.399999999999999">
+        <v>6.57</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" ht="18.75">
       <c r="B16" s="7">
         <v>13</v>
       </c>
@@ -1279,25 +1280,25 @@
       </c>
       <c r="D16" s="9">
         <f t="shared" si="0"/>
-        <v>33.885199999999998</v>
+        <v>4.1999999999999997E-3</v>
       </c>
       <c r="E16" s="10">
         <f t="shared" si="1"/>
-        <v>7.1074999999999999</v>
+        <v>0.8370833333333334</v>
       </c>
       <c r="F16" s="11" t="s">
         <v>5</v>
       </c>
       <c r="I16" s="1">
         <f>Sheet2!A13</f>
-        <v>33.885199999999998</v>
+        <v>4.1999999999999997E-3</v>
       </c>
       <c r="J16" s="1">
         <f>Sheet2!B13</f>
-        <v>7.1074999999999999</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" ht="17.399999999999999">
+        <v>0.8370833333333334</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" ht="18.75">
       <c r="B17" s="7">
         <v>14</v>
       </c>
@@ -1306,25 +1307,25 @@
       </c>
       <c r="D17" s="9">
         <f t="shared" si="0"/>
-        <v>63.973200000000006</v>
+        <v>1.0058</v>
       </c>
       <c r="E17" s="10">
         <f t="shared" si="1"/>
-        <v>7.5133333333333319</v>
+        <v>1.905</v>
       </c>
       <c r="F17" s="11" t="s">
         <v>5</v>
       </c>
       <c r="I17" s="1">
         <f>Sheet2!A14</f>
-        <v>63.973200000000006</v>
+        <v>1.0058</v>
       </c>
       <c r="J17" s="1">
         <f>Sheet2!B14</f>
-        <v>7.5133333333333319</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" ht="17.399999999999999">
+        <v>1.905</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" ht="18.75">
       <c r="B18" s="7">
         <v>15</v>
       </c>
@@ -1333,25 +1334,25 @@
       </c>
       <c r="D18" s="9">
         <f t="shared" si="0"/>
-        <v>14.92</v>
+        <v>26.409999999999997</v>
       </c>
       <c r="E18" s="10">
         <f t="shared" si="1"/>
-        <v>4.3</v>
+        <v>3.5554166666666669</v>
       </c>
       <c r="F18" s="11" t="s">
         <v>5</v>
       </c>
       <c r="I18" s="1">
         <f>Sheet2!A15</f>
-        <v>14.92</v>
+        <v>26.409999999999997</v>
       </c>
       <c r="J18" s="1">
         <f>Sheet2!B15</f>
-        <v>4.3</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" ht="17.399999999999999">
+        <v>3.5554166666666669</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" ht="18.75">
       <c r="B19" s="7">
         <v>16</v>
       </c>
@@ -1360,25 +1361,25 @@
       </c>
       <c r="D19" s="9">
         <f t="shared" si="0"/>
-        <v>28.675000000000001</v>
+        <v>9.4949999999999992</v>
       </c>
       <c r="E19" s="10">
         <f t="shared" si="1"/>
-        <v>4.29</v>
+        <v>3.96</v>
       </c>
       <c r="F19" s="11" t="s">
         <v>5</v>
       </c>
       <c r="I19" s="1">
         <f>Sheet2!A16</f>
-        <v>28.675000000000001</v>
+        <v>9.4949999999999992</v>
       </c>
       <c r="J19" s="1">
         <f>Sheet2!B16</f>
-        <v>4.29</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" ht="17.399999999999999">
+        <v>3.96</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" ht="18.75">
       <c r="B20" s="7">
         <v>17</v>
       </c>
@@ -1387,25 +1388,25 @@
       </c>
       <c r="D20" s="9">
         <f t="shared" si="0"/>
-        <v>16.356000000000002</v>
+        <v>6.673</v>
       </c>
       <c r="E20" s="10">
         <f t="shared" si="1"/>
-        <v>4.25</v>
+        <v>3.18</v>
       </c>
       <c r="F20" s="11" t="s">
         <v>5</v>
       </c>
       <c r="I20" s="1">
         <f>Sheet2!A17</f>
-        <v>16.356000000000002</v>
+        <v>6.673</v>
       </c>
       <c r="J20" s="1">
         <f>Sheet2!B17</f>
-        <v>4.25</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" ht="17.399999999999999">
+        <v>3.18</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" ht="18.75">
       <c r="B21" s="7">
         <v>18</v>
       </c>
@@ -1414,25 +1415,25 @@
       </c>
       <c r="D21" s="9">
         <f t="shared" si="0"/>
-        <v>8.9</v>
+        <v>3.056</v>
       </c>
       <c r="E21" s="10">
         <f t="shared" si="1"/>
-        <v>3.35</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F21" s="11" t="s">
         <v>5</v>
       </c>
       <c r="I21" s="1">
         <f>Sheet2!A18</f>
-        <v>8.9</v>
+        <v>3.056</v>
       </c>
       <c r="J21" s="1">
         <f>Sheet2!B18</f>
-        <v>3.35</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" ht="17.399999999999999">
+        <v>2.5499999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" ht="18.75">
       <c r="B22" s="7">
         <v>19</v>
       </c>
@@ -1441,25 +1442,25 @@
       </c>
       <c r="D22" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="E22" s="10">
         <f t="shared" si="1"/>
-        <v>4.7699999999999996</v>
+        <v>6.5</v>
       </c>
       <c r="F22" s="11" t="s">
         <v>5</v>
       </c>
       <c r="I22" s="1">
         <f>Sheet2!A19</f>
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="J22" s="1">
         <f>Sheet2!B19</f>
-        <v>4.7699999999999996</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" ht="17.399999999999999">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" ht="18.75">
       <c r="B23" s="12">
         <v>20</v>
       </c>
@@ -1468,25 +1469,25 @@
       </c>
       <c r="D23" s="14">
         <f t="shared" si="0"/>
-        <v>25.619584144216599</v>
+        <v>86.339100000000002</v>
       </c>
       <c r="E23" s="15">
         <f t="shared" si="1"/>
-        <v>24.844338733796</v>
+        <v>5.17</v>
       </c>
       <c r="F23" s="16" t="s">
         <v>25</v>
       </c>
       <c r="I23" s="1">
         <f>Sheet2!A20</f>
-        <v>25.619584144216599</v>
+        <v>86.339100000000002</v>
       </c>
       <c r="J23" s="1">
         <f>Sheet2!B20</f>
-        <v>24.844338733796</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" ht="17.399999999999999">
+        <v>5.17</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" ht="18.75">
       <c r="B24" s="12">
         <v>21</v>
       </c>
@@ -1495,25 +1496,25 @@
       </c>
       <c r="D24" s="14">
         <f t="shared" si="0"/>
-        <v>8.0986999999999991</v>
+        <v>10.2437616003293</v>
       </c>
       <c r="E24" s="15">
         <f t="shared" si="1"/>
-        <v>14.71</v>
+        <v>10.04217784013</v>
       </c>
       <c r="F24" s="16" t="s">
         <v>25</v>
       </c>
       <c r="I24" s="1">
         <f>Sheet2!A21</f>
-        <v>8.0986999999999991</v>
+        <v>10.2437616003293</v>
       </c>
       <c r="J24" s="1">
         <f>Sheet2!B21</f>
-        <v>14.71</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" ht="17.399999999999999">
+        <v>10.04217784013</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" ht="18.75">
       <c r="B25" s="12">
         <v>22</v>
       </c>
@@ -1522,25 +1523,25 @@
       </c>
       <c r="D25" s="14">
         <f t="shared" si="0"/>
-        <v>6.0244</v>
+        <v>9.5549999999999997</v>
       </c>
       <c r="E25" s="15">
         <f t="shared" si="1"/>
-        <v>11.6014</v>
+        <v>15.58</v>
       </c>
       <c r="F25" s="16" t="s">
         <v>25</v>
       </c>
       <c r="I25" s="1">
         <f>Sheet2!A22</f>
-        <v>6.0244</v>
+        <v>9.5549999999999997</v>
       </c>
       <c r="J25" s="1">
         <f>Sheet2!B22</f>
-        <v>11.6014</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" ht="17.399999999999999">
+        <v>15.58</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" ht="18.75">
       <c r="B26" s="12">
         <v>23</v>
       </c>
@@ -1549,25 +1550,25 @@
       </c>
       <c r="D26" s="14">
         <f t="shared" si="0"/>
-        <v>6.3051000000000004</v>
+        <v>6.0316000000000001</v>
       </c>
       <c r="E26" s="15">
         <f t="shared" si="1"/>
-        <v>12.9939</v>
+        <v>11.5581</v>
       </c>
       <c r="F26" s="16" t="s">
         <v>25</v>
       </c>
       <c r="I26" s="1">
         <f>Sheet2!A23</f>
-        <v>6.3051000000000004</v>
+        <v>6.0316000000000001</v>
       </c>
       <c r="J26" s="1">
         <f>Sheet2!B23</f>
-        <v>12.9939</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" ht="17.399999999999999">
+        <v>11.5581</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" ht="18.75">
       <c r="B27" s="12">
         <v>24</v>
       </c>
@@ -1576,25 +1577,25 @@
       </c>
       <c r="D27" s="14">
         <f t="shared" si="0"/>
-        <v>70.654499999999999</v>
+        <v>6.0580999999999996</v>
       </c>
       <c r="E27" s="15">
         <f t="shared" si="1"/>
-        <v>14.489000000000001</v>
+        <v>12.585000000000001</v>
       </c>
       <c r="F27" s="16" t="s">
         <v>25</v>
       </c>
       <c r="I27" s="1">
         <f>Sheet2!A24</f>
-        <v>70.654499999999999</v>
+        <v>6.0580999999999996</v>
       </c>
       <c r="J27" s="1">
         <f>Sheet2!B24</f>
-        <v>14.489000000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10" ht="17.399999999999999">
+        <v>12.585000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" ht="18.75">
       <c r="B28" s="12">
         <v>25</v>
       </c>
@@ -1603,25 +1604,25 @@
       </c>
       <c r="D28" s="14">
         <f t="shared" si="0"/>
-        <v>11.286199999999999</v>
+        <v>69.086799999999997</v>
       </c>
       <c r="E28" s="15">
         <f t="shared" si="1"/>
-        <v>25.503</v>
+        <v>15.206</v>
       </c>
       <c r="F28" s="16" t="s">
         <v>25</v>
       </c>
       <c r="I28" s="1">
         <f>Sheet2!A25</f>
-        <v>11.286199999999999</v>
+        <v>69.086799999999997</v>
       </c>
       <c r="J28" s="1">
         <f>Sheet2!B25</f>
-        <v>25.503</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10" ht="17.399999999999999">
+        <v>15.206</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" ht="18.75">
       <c r="B29" s="12">
         <v>26</v>
       </c>
@@ -1630,25 +1631,25 @@
       </c>
       <c r="D29" s="14">
         <f t="shared" si="0"/>
-        <v>5.8079999999999998</v>
+        <v>0.3004</v>
       </c>
       <c r="E29" s="15">
         <f t="shared" si="1"/>
-        <v>24.67</v>
+        <v>11.332000000000001</v>
       </c>
       <c r="F29" s="16" t="s">
         <v>25</v>
       </c>
       <c r="I29" s="1">
         <f>Sheet2!A26</f>
-        <v>5.8079999999999998</v>
+        <v>0.3004</v>
       </c>
       <c r="J29" s="1">
         <f>Sheet2!B26</f>
-        <v>24.67</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10" ht="17.399999999999999">
+        <v>11.332000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" ht="18.75">
       <c r="B30" s="12">
         <v>27</v>
       </c>
@@ -1657,25 +1658,25 @@
       </c>
       <c r="D30" s="14">
         <f t="shared" si="0"/>
-        <v>28.74</v>
+        <v>8.0625</v>
       </c>
       <c r="E30" s="15">
         <f t="shared" si="1"/>
-        <v>27.123000000000001</v>
+        <v>7.93</v>
       </c>
       <c r="F30" s="16" t="s">
         <v>25</v>
       </c>
       <c r="I30" s="1">
         <f>Sheet2!A27</f>
-        <v>28.74</v>
+        <v>8.0625</v>
       </c>
       <c r="J30" s="1">
         <f>Sheet2!B27</f>
-        <v>27.123000000000001</v>
-      </c>
-    </row>
-    <row r="31" spans="2:10" ht="17.399999999999999">
+        <v>7.93</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" ht="18.75">
       <c r="B31" s="12">
         <v>28</v>
       </c>
@@ -1684,25 +1685,25 @@
       </c>
       <c r="D31" s="14">
         <f t="shared" si="0"/>
-        <v>7.8810000000000002</v>
+        <v>1.52</v>
       </c>
       <c r="E31" s="15">
         <f t="shared" si="1"/>
-        <v>12.51</v>
+        <v>2.9820000000000002</v>
       </c>
       <c r="F31" s="17" t="s">
         <v>34</v>
       </c>
       <c r="I31" s="1">
         <f>Sheet2!A28</f>
-        <v>7.8810000000000002</v>
+        <v>1.52</v>
       </c>
       <c r="J31" s="1">
         <f>Sheet2!B28</f>
-        <v>12.51</v>
-      </c>
-    </row>
-    <row r="32" spans="2:10" ht="17.399999999999999">
+        <v>2.9820000000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" ht="18.75">
       <c r="B32" s="12">
         <v>29</v>
       </c>
@@ -1711,28 +1712,28 @@
       </c>
       <c r="D32" s="14">
         <f t="shared" si="0"/>
-        <v>4.3460000000000001</v>
+        <v>5.2408999999999999</v>
       </c>
       <c r="E32" s="15">
         <f t="shared" si="1"/>
-        <v>9.85</v>
+        <v>6.46</v>
       </c>
       <c r="F32" s="16" t="s">
         <v>36</v>
       </c>
       <c r="I32" s="1">
         <f>Sheet2!A29</f>
-        <v>4.3460000000000001</v>
+        <v>5.2408999999999999</v>
       </c>
       <c r="J32" s="1">
         <f>Sheet2!B29</f>
-        <v>9.85</v>
+        <v>6.46</v>
       </c>
     </row>
     <row r="33" spans="2:7">
       <c r="B33" s="24" t="str">
         <f>"  本月风电累计发电量"&amp;TEXT(C41,"0")&amp;"万kWh；本年累计"&amp;TEXT(D41,"0.00")&amp;"亿kWh。本月光伏累计发电量"&amp;TEXT(C42,"0")&amp;"万kWh；本年累计"&amp;TEXT(D42,"0.00")&amp;"亿kWh。产业合计年累计发电量"&amp;TEXT(C43,"0.00")&amp;"亿kWh。截至目前，2019年日均发电量"&amp;TEXT(D43,"0")&amp;"万kWh。"</f>
-        <v xml:space="preserve">  本月风电累计发电量1417万kWh；本年累计22.59亿kWh。本月光伏累计发电量341万kWh；本年累计3.25亿kWh。产业合计年累计发电量25.85亿kWh。截至目前，2019年日均发电量1412万kWh。</v>
+        <v xml:space="preserve">  本月风电累计发电量165081万kWh；本年累计38.96亿kWh。本月光伏累计发电量29308万kWh；本年累计6.15亿kWh。产业合计年累计发电量45.11亿kWh。截至目前，2019年日均发电量1323万kWh。</v>
       </c>
       <c r="C33" s="25"/>
       <c r="D33" s="26"/>
@@ -1771,14 +1772,14 @@
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
     </row>
-    <row r="41" spans="2:7" ht="15.6">
+    <row r="41" spans="2:7" ht="14.25">
       <c r="C41" s="18">
         <f>Sheet3!A1</f>
-        <v>1417.1161222565097</v>
+        <v>165081.24400053147</v>
       </c>
       <c r="D41" s="1">
         <f>Sheet3!B1</f>
-        <v>22.592744235725252</v>
+        <v>38.959157023552756</v>
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1" t="s">
@@ -1788,14 +1789,14 @@
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="2:7" ht="15.6">
+    <row r="42" spans="2:7" ht="14.25">
       <c r="C42" s="18">
         <f>Sheet3!A2</f>
-        <v>340.86875010079109</v>
+        <v>29308.302798152239</v>
       </c>
       <c r="D42" s="1">
         <f>Sheet3!B2</f>
-        <v>3.2524602062101291</v>
+        <v>6.1492036110152766</v>
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1" t="s">
@@ -1805,14 +1806,14 @@
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="2:7" ht="15.6">
+    <row r="43" spans="2:7" ht="14.25">
       <c r="C43" s="18">
         <f>Sheet3!A3</f>
-        <v>25.84520444193538</v>
+        <v>45.108360634568029</v>
       </c>
       <c r="D43" s="1">
         <f>Sheet3!B3</f>
-        <v>1412.306253657671</v>
+        <v>1322.8258250606459</v>
       </c>
       <c r="E43" s="1"/>
       <c r="F43" s="1" t="s">
@@ -1822,14 +1823,14 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="2:7" ht="15.6">
+    <row r="44" spans="2:7" ht="14.25">
       <c r="C44" s="18">
         <f>Sheet3!A4</f>
-        <v>856.77670634269964</v>
+        <v>858.3149148304376</v>
       </c>
       <c r="D44" s="1">
         <f>Sheet3!B4</f>
-        <v>682.01322219848305</v>
+        <v>655.87675323010831</v>
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1" t="s">
@@ -1839,10 +1840,10 @@
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="2:7" ht="15.6">
+    <row r="45" spans="2:7" ht="14.25">
       <c r="C45" s="18">
         <f>Sheet3!A5</f>
-        <v>174.76348414421662</v>
+        <v>202.43816160032929</v>
       </c>
       <c r="D45" s="1">
         <v>7</v>
@@ -1855,14 +1856,14 @@
         <v>46</v>
       </c>
     </row>
-    <row r="46" spans="2:7" ht="15.6">
+    <row r="46" spans="2:7" ht="14.25">
       <c r="C46" s="18">
         <f>Sheet3!A6</f>
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D46" s="1">
         <f>Sheet3!B6</f>
-        <v>183</v>
+        <v>341</v>
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1" t="s">
@@ -1886,244 +1887,252 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B29"/>
+      <selection sqref="A1:B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1">
-        <v>32.722000000000001</v>
+        <v>1.6930000000000001</v>
       </c>
       <c r="B1">
-        <v>5.73</v>
+        <v>2.2200000000000002</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>26.05</v>
+        <v>2.8370000000000002</v>
       </c>
       <c r="B2">
-        <v>5.83</v>
+        <v>2.31</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>57.575000000000003</v>
+        <v>3.2069999999999999</v>
       </c>
       <c r="B3">
-        <v>4.79</v>
+        <v>2.4500000000000002</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>26.32</v>
+        <v>18.708200000000001</v>
       </c>
       <c r="B4">
-        <v>5.73</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>24.1</v>
+        <v>8.6210000000000004</v>
       </c>
       <c r="B5">
-        <v>5.25</v>
+        <v>3.86</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>124.00460299196401</v>
+        <v>16.440999999999999</v>
       </c>
       <c r="B6">
-        <v>4.9083333333333297</v>
+        <v>3.82</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>67.393633785060103</v>
+        <v>31.7739403453714</v>
       </c>
       <c r="B7">
-        <v>6.5962500000000004</v>
+        <v>2.4895833333333299</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>62.9836854214591</v>
+        <v>35.352604589804898</v>
       </c>
       <c r="B8">
-        <v>5.335</v>
+        <v>4.2379166666666697</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>23.862400000000001</v>
+        <v>9.5046082949320496</v>
       </c>
       <c r="B9">
-        <v>4.4400000000000004</v>
+        <v>2.4550000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>15.315899999999999</v>
+        <v>65.784199999999998</v>
       </c>
       <c r="B10">
-        <v>3.58</v>
+        <v>5.34</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>32.324599999999997</v>
+        <v>78.440200000000004</v>
       </c>
       <c r="B11">
-        <v>3.01</v>
+        <v>5.43</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>22.652000000000001</v>
+        <v>295.87</v>
       </c>
       <c r="B12">
-        <v>4.5425000000000004</v>
+        <v>6.57</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>33.885199999999998</v>
+        <v>4.1999999999999997E-3</v>
       </c>
       <c r="B13">
-        <v>7.1074999999999999</v>
+        <v>0.8370833333333334</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>63.973200000000006</v>
+        <v>1.0058</v>
       </c>
       <c r="B14">
-        <v>7.5133333333333319</v>
+        <v>1.905</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>14.92</v>
+        <v>26.409999999999997</v>
       </c>
       <c r="B15">
-        <v>4.3</v>
+        <v>3.5554166666666669</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>28.675000000000001</v>
+        <v>9.4949999999999992</v>
       </c>
       <c r="B16">
-        <v>4.29</v>
+        <v>3.96</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>16.356000000000002</v>
+        <v>6.673</v>
       </c>
       <c r="B17">
-        <v>4.25</v>
+        <v>3.18</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>8.9</v>
+        <v>3.056</v>
       </c>
       <c r="B18">
-        <v>3.35</v>
+        <v>2.5499999999999998</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="B19">
-        <v>4.7699999999999996</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>25.619584144216599</v>
+        <v>86.339100000000002</v>
       </c>
       <c r="B20">
-        <v>24.844338733796</v>
+        <v>5.17</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>8.0986999999999991</v>
+        <v>10.2437616003293</v>
       </c>
       <c r="B21">
-        <v>14.71</v>
+        <v>10.04217784013</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>6.0244</v>
+        <v>9.5549999999999997</v>
       </c>
       <c r="B22">
-        <v>11.6014</v>
+        <v>15.58</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>6.3051000000000004</v>
+        <v>6.0316000000000001</v>
       </c>
       <c r="B23">
-        <v>12.9939</v>
+        <v>11.5581</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>70.654499999999999</v>
+        <v>6.0580999999999996</v>
       </c>
       <c r="B24">
-        <v>14.489000000000001</v>
+        <v>12.585000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>11.286199999999999</v>
+        <v>69.086799999999997</v>
       </c>
       <c r="B25">
-        <v>25.503</v>
+        <v>15.206</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>5.8079999999999998</v>
+        <v>0.3004</v>
       </c>
       <c r="B26">
-        <v>24.67</v>
+        <v>11.332000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>28.74</v>
+        <v>8.0625</v>
       </c>
       <c r="B27">
-        <v>27.123000000000001</v>
+        <v>7.93</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>7.8810000000000002</v>
+        <v>1.52</v>
       </c>
       <c r="B28">
-        <v>12.51</v>
+        <v>2.9820000000000002</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29">
-        <v>4.3460000000000001</v>
+        <v>5.2408999999999999</v>
       </c>
       <c r="B29">
-        <v>9.85</v>
+        <v>6.46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30">
+        <v>8.0229999999999997</v>
+      </c>
+      <c r="B30">
+        <v>13.06</v>
       </c>
     </row>
   </sheetData>
@@ -2141,43 +2150,43 @@
       <selection sqref="A1:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1">
-        <v>1417.1161222565097</v>
+        <v>165081.24400053147</v>
       </c>
       <c r="B1" s="1">
-        <v>22.592744235725252</v>
+        <v>38.959157023552756</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1">
-        <v>340.86875010079109</v>
+        <v>29308.302798152239</v>
       </c>
       <c r="B2" s="1">
-        <v>3.2524602062101291</v>
+        <v>6.1492036110152766</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1">
-        <v>25.84520444193538</v>
+        <v>45.108360634568029</v>
       </c>
       <c r="B3" s="1">
-        <v>1412.306253657671</v>
+        <v>1322.8258250606459</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1">
-        <v>856.77670634269964</v>
+        <v>858.3149148304376</v>
       </c>
       <c r="B4" s="1">
-        <v>682.01322219848305</v>
+        <v>655.87675323010831</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1">
-        <v>174.76348414421662</v>
+        <v>202.43816160032929</v>
       </c>
       <c r="B5" s="1">
         <v>7</v>
@@ -2185,10 +2194,10 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B6" s="1">
-        <v>183</v>
+        <v>341</v>
       </c>
     </row>
   </sheetData>
